--- a/data/vintage_data/data_20080807.xlsx
+++ b/data/vintage_data/data_20080807.xlsx
@@ -370,47 +370,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>baag10_obs</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>hours_dngs15_obs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gdpdef_obs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>ffr_obs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>hours_dngs15_obs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ifi_rgd_obs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>gdp_rgd_obs</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ifi_rgd_obs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hours_sw07_obs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>c_rgd_obs</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>baag10_obs</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hours_sw07_obs</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gdpdef_obs</t>
         </is>
       </c>
     </row>
@@ -421,31 +421,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.357527173913042</v>
+        <v>0.4793750000000001</v>
       </c>
       <c r="C2" t="n">
         <v>-48.11887071668924</v>
       </c>
       <c r="D2" t="n">
+        <v>0.7266567904379688</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.357527173913042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.097964268211576</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.025564108005466</v>
       </c>
-      <c r="E2" t="n">
-        <v>5.097964268211576</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>-4.33465653549456</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.511276052260173</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.4793750000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.26580041541393</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.3624400212747939</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7266567904379688</v>
       </c>
     </row>
     <row r="3">
@@ -455,31 +455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.422142857142858</v>
+        <v>0.4472043010752684</v>
       </c>
       <c r="C3" t="n">
         <v>-47.39609020999638</v>
       </c>
       <c r="D3" t="n">
+        <v>1.231405465219398</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.422142857142858</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.943971012166603</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.936235790033202</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.943971012166603</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>-3.375287343407592</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.6928772202748821</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.4472043010752684</v>
-      </c>
-      <c r="H3" t="n">
-        <v>47.26519934912494</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.0187856805383563</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.231405465219398</v>
       </c>
     </row>
     <row r="4">
@@ -489,31 +489,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.638681318681318</v>
+        <v>0.3715079365079372</v>
       </c>
       <c r="C4" t="n">
         <v>-46.42621826985631</v>
       </c>
       <c r="D4" t="n">
+        <v>0.8951704511168035</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.638681318681318</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.573903360677676</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.706469651844471</v>
       </c>
-      <c r="E4" t="n">
-        <v>3.573903360677676</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>-2.134274292068199</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.498138642404912</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.3715079365079372</v>
-      </c>
-      <c r="H4" t="n">
-        <v>53.9945629225241</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.08341637990603153</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8951704511168035</v>
       </c>
     </row>
     <row r="5">
@@ -523,31 +523,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.848070652173912</v>
+        <v>0.4592063492063501</v>
       </c>
       <c r="C5" t="n">
         <v>-46.575938127631</v>
       </c>
       <c r="D5" t="n">
+        <v>0.812244179649391</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.848070652173912</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.606450772325527</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.9680650943139526</v>
       </c>
-      <c r="E5" t="n">
-        <v>1.606450772325527</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>-2.44122653150157</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.7282944685638685</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.4592063492063501</v>
-      </c>
-      <c r="H5" t="n">
-        <v>54.06256700538961</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.5550377060815963</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.812244179649391</v>
       </c>
     </row>
     <row r="6">
@@ -557,31 +557,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.315624999999999</v>
+        <v>0.461502732240437</v>
       </c>
       <c r="C6" t="n">
         <v>-46.51931360714195</v>
       </c>
       <c r="D6" t="n">
+        <v>0.5909931339029607</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.315624999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.469439594879773</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.81826138930721</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.469439594879773</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>-2.284652526120738</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.343985983996555</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.461502732240437</v>
-      </c>
-      <c r="H6" t="n">
-        <v>46.26580041541393</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.1708529278791655</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5909931339029607</v>
       </c>
     </row>
     <row r="7">
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.118777777777778</v>
+        <v>0.4517083333333329</v>
       </c>
       <c r="C7" t="n">
         <v>-46.48957156663951</v>
       </c>
       <c r="D7" t="n">
+        <v>1.145594478509028</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.118777777777778</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.07423218461064494</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.9191163672064832</v>
       </c>
-      <c r="E7" t="n">
-        <v>-0.07423218461064494</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>-1.805944288575745</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.591468227671218</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.4517083333333329</v>
-      </c>
-      <c r="H7" t="n">
-        <v>44.68552061592288</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.0936451387024257</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.145594478509028</v>
       </c>
     </row>
     <row r="8">
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.981098901098901</v>
+        <v>0.5491269841269846</v>
       </c>
       <c r="C8" t="n">
         <v>-46.46794215043609</v>
       </c>
       <c r="D8" t="n">
+        <v>0.5219083082773684</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.981098901098901</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8749398006763178</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.8508413427336214</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.8749398006763178</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>-1.796307236446637</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.139861381048612</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5491269841269846</v>
-      </c>
-      <c r="H8" t="n">
-        <v>41.85847722209735</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.2652226031985177</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5219083082773684</v>
       </c>
     </row>
     <row r="9">
@@ -659,31 +659,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.975244565217391</v>
+        <v>0.5336111111111115</v>
       </c>
       <c r="C9" t="n">
         <v>-46.64747133609491</v>
       </c>
       <c r="D9" t="n">
+        <v>0.4791356051186754</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.975244565217391</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.8722289092771164</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.550879591774714</v>
       </c>
-      <c r="E9" t="n">
-        <v>-0.8722289092771164</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>-1.897452850412151</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.041430468178603</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.5336111111111115</v>
-      </c>
-      <c r="H9" t="n">
-        <v>37.54238951324953</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.9137733930902497</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4791356051186754</v>
       </c>
     </row>
     <row r="10">
@@ -693,31 +693,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.026114130434783</v>
+        <v>0.5526344086021506</v>
       </c>
       <c r="C10" t="n">
         <v>-46.06901411677114</v>
       </c>
       <c r="D10" t="n">
+        <v>0.6035331321396218</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.026114130434783</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.924379255555116</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.7656992750145573</v>
       </c>
-      <c r="E10" t="n">
-        <v>1.924379255555116</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>-1.604451143195206</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.4051131570968576</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.5526344086021506</v>
-      </c>
-      <c r="H10" t="n">
-        <v>33.50584478978681</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1.131977420649275</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6035331321396218</v>
       </c>
     </row>
     <row r="11">
@@ -727,31 +727,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.956722222222221</v>
+        <v>0.6149713114754092</v>
       </c>
       <c r="C11" t="n">
         <v>-45.81019799036694</v>
       </c>
       <c r="D11" t="n">
+        <v>0.5122067966619696</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.956722222222221</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08946328040320277</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.9517715097951182</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.08946328040320277</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>-1.664201235832593</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.040254505786429</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.6149713114754092</v>
-      </c>
-      <c r="H11" t="n">
-        <v>25.24345395157707</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.8327718915132062</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5122067966619696</v>
       </c>
     </row>
     <row r="12">
@@ -761,31 +761,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.729615384615386</v>
+        <v>0.6681640624999996</v>
       </c>
       <c r="C12" t="n">
         <v>-46.03618495681573</v>
       </c>
       <c r="D12" t="n">
+        <v>0.4814319518172924</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.729615384615386</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03529478943955385</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.3955179842928014</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.03529478943955385</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>-2.065067996144137</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.6300354506865591</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.6681640624999996</v>
-      </c>
-      <c r="H12" t="n">
-        <v>18.13860143939678</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.3604664869711737</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.4814319518172924</v>
       </c>
     </row>
     <row r="13">
@@ -795,31 +795,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.552364130434782</v>
+        <v>0.7192578125000004</v>
       </c>
       <c r="C13" t="n">
         <v>-45.9122386449132</v>
       </c>
       <c r="D13" t="n">
+        <v>0.6373919484586089</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.552364130434782</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.3394502329336466</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.9533995897742173</v>
       </c>
-      <c r="E13" t="n">
-        <v>-0.3394502329336466</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>-1.933955870123611</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.832494277022122</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.7192578125000004</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17.27686959809807</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.3346420717301988</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6373919484586089</v>
       </c>
     </row>
     <row r="14">
@@ -829,31 +829,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.566684782608696</v>
+        <v>0.707859122983872</v>
       </c>
       <c r="C14" t="n">
         <v>-45.73115809429887</v>
       </c>
       <c r="D14" t="n">
+        <v>0.7042528148574164</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.566684782608696</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6389507243223675</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.5025733719619636</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.6389507243223675</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>-1.622413427027311</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.6400036336649707</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.707859122983872</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.41848200054898</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.9439049497590892</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7042528148574164</v>
       </c>
     </row>
     <row r="15">
@@ -863,31 +863,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.555638888888889</v>
+        <v>0.6166314119513487</v>
       </c>
       <c r="C15" t="n">
         <v>-45.05284998432543</v>
       </c>
       <c r="D15" t="n">
+        <v>0.7669237584501565</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.555638888888889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-2.448766293781741</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.6557193823560804</v>
       </c>
-      <c r="E15" t="n">
-        <v>-2.448766293781741</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>-0.8362729718119795</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.3967354634090401</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.6166314119513487</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12.02921242446314</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>-0.6129512377825054</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7669237584501565</v>
       </c>
     </row>
     <row r="16">
@@ -897,31 +897,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.6625</v>
+        <v>0.5042460317460318</v>
       </c>
       <c r="C16" t="n">
         <v>-44.58457462802819</v>
       </c>
       <c r="D16" t="n">
+        <v>0.5363860526991826</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.6625</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.358704597563786</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.093760903872006</v>
       </c>
-      <c r="E16" t="n">
-        <v>1.358704597563786</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>-0.4115903265366114</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.678486872764189</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.5042460317460318</v>
-      </c>
-      <c r="H16" t="n">
-        <v>19.00197289145984</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.4206078914575486</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5363860526991826</v>
       </c>
     </row>
     <row r="17">
@@ -931,31 +931,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.709891304347826</v>
+        <v>0.5077343750000005</v>
       </c>
       <c r="C17" t="n">
         <v>-44.12652236639215</v>
       </c>
       <c r="D17" t="n">
+        <v>0.746139542606062</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.709891304347826</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.544036886062381</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.9034435385936462</v>
       </c>
-      <c r="E17" t="n">
-        <v>1.544036886062381</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>-0.09213006974772497</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.383608315235756</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.5077343750000005</v>
-      </c>
-      <c r="H17" t="n">
-        <v>24.09182624813462</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.2696876592827458</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.746139542606062</v>
       </c>
     </row>
     <row r="18">
@@ -965,31 +965,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.72991847826087</v>
+        <v>0.5633278729838715</v>
       </c>
       <c r="C18" t="n">
         <v>-43.88551135483149</v>
       </c>
       <c r="D18" t="n">
+        <v>0.675724087031281</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.72991847826087</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1278053788893364</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.731314523077191</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.1278053788893364</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>0.4289252785343933</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.4133193156822352</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.5633278729838715</v>
-      </c>
-      <c r="H18" t="n">
-        <v>28.41614963603053</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.557371050331582</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.675724087031281</v>
       </c>
     </row>
     <row r="19">
@@ -999,31 +999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.666483516483517</v>
+        <v>0.5835675883256504</v>
       </c>
       <c r="C19" t="n">
         <v>-44.0445593990238</v>
       </c>
       <c r="D19" t="n">
+        <v>0.8295673516799764</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.666483516483517</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.07086764081422642</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.4876990468199718</v>
       </c>
-      <c r="E19" t="n">
-        <v>-0.07086764081422642</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
+        <v>0.05436893693541833</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.68271616941771</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.5835675883256504</v>
-      </c>
-      <c r="H19" t="n">
-        <v>22.65608239901371</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.7435998434387213</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.8295673516799764</v>
       </c>
     </row>
     <row r="20">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.788736263736262</v>
+        <v>0.5175000000000014</v>
       </c>
       <c r="C20" t="n">
         <v>-43.81051972180227</v>
       </c>
       <c r="D20" t="n">
+        <v>0.9769195537953163</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.788736263736262</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.565429479412046</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.263244014878953</v>
       </c>
-      <c r="E20" t="n">
-        <v>1.565429479412046</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
+        <v>0.5549275887312319</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.8375778563216048</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.5175000000000014</v>
-      </c>
-      <c r="H20" t="n">
-        <v>24.84337510472744</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.1473501260968532</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.9769195537953163</v>
       </c>
     </row>
     <row r="21">
@@ -1067,31 +1067,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.995869565217391</v>
+        <v>0.4937890624999994</v>
       </c>
       <c r="C21" t="n">
         <v>-43.62071872348125</v>
       </c>
       <c r="D21" t="n">
+        <v>1.164569455100254</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.995869565217391</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.3188984532778949</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.5325276437464489</v>
       </c>
-      <c r="E21" t="n">
-        <v>-0.3188984532778949</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
+        <v>0.6777853039521347</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.8552590290610033</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.4937890624999994</v>
-      </c>
-      <c r="H21" t="n">
-        <v>25.71269945110214</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-0.03367691419229579</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.164569455100254</v>
       </c>
     </row>
     <row r="22">
@@ -1101,31 +1101,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.117119565217391</v>
+        <v>0.3882377049180321</v>
       </c>
       <c r="C22" t="n">
         <v>-43.12924079546048</v>
       </c>
       <c r="D22" t="n">
+        <v>0.7949624773859965</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.117119565217391</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.167086974702332</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.311012310448914</v>
       </c>
-      <c r="E22" t="n">
-        <v>1.167086974702332</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
+        <v>1.441931963661602</v>
+      </c>
+      <c r="I22" t="n">
         <v>1.342160426055427</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.3882377049180321</v>
-      </c>
-      <c r="H22" t="n">
-        <v>20.44253203294096</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>-0.1885353706679958</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7949624773859965</v>
       </c>
     </row>
     <row r="23">
@@ -1135,31 +1135,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.36161111111111</v>
+        <v>0.3583804865150717</v>
       </c>
       <c r="C23" t="n">
         <v>-42.74262386585544</v>
       </c>
       <c r="D23" t="n">
+        <v>1.039044418623087</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.36161111111111</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4554994901184618</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.009691363157309</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.4554994901184618</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
+        <v>2.088629928426769</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.5146523955785554</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.3583804865150717</v>
-      </c>
-      <c r="H23" t="n">
-        <v>21.72035854159299</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>-0.7141146922364958</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.039044418623087</v>
       </c>
     </row>
     <row r="24">
@@ -1169,31 +1169,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.431428571428573</v>
+        <v>0.4010937499999998</v>
       </c>
       <c r="C24" t="n">
         <v>-42.93467349268331</v>
       </c>
       <c r="D24" t="n">
+        <v>0.9671081597911113</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.431428571428573</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.2281298267075077</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.6541056055695145</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.2281298267075077</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
+        <v>2.28689827475722</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.8000015615407166</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.4010937499999998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>19.02765773805635</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>-0.7057968438876389</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.9671081597911113</v>
       </c>
     </row>
     <row r="25">
@@ -1203,31 +1203,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.270896739130434</v>
+        <v>0.4448015873015883</v>
       </c>
       <c r="C25" t="n">
         <v>-42.91605852924081</v>
       </c>
       <c r="D25" t="n">
+        <v>0.7262122151505735</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.270896739130434</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.423650320612265</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.7097607174955247</v>
       </c>
-      <c r="E25" t="n">
-        <v>1.423650320612265</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
+        <v>2.467811729091807</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.8570173205904901</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.4448015873015883</v>
-      </c>
-      <c r="H25" t="n">
-        <v>14.3285183482227</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.08528008334099503</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.7262122151505735</v>
       </c>
     </row>
     <row r="26">
@@ -1237,31 +1237,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.153614130434783</v>
+        <v>0.4765988223246289</v>
       </c>
       <c r="C26" t="n">
         <v>-42.99655323487583</v>
       </c>
       <c r="D26" t="n">
+        <v>0.6567919231215915</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.153614130434783</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.802333380525778</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.253489170199633</v>
       </c>
-      <c r="E26" t="n">
-        <v>-1.802333380525778</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>2.102061701079379</v>
+      </c>
+      <c r="I26" t="n">
         <v>0.6266159592973694</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.4765988223246289</v>
-      </c>
-      <c r="H26" t="n">
-        <v>13.5856315450543</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0.6407714198461927</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6567919231215915</v>
       </c>
     </row>
     <row r="27">
@@ -1271,31 +1271,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.061999999999999</v>
+        <v>0.4179211469534052</v>
       </c>
       <c r="C27" t="n">
         <v>-42.85893126927225</v>
       </c>
       <c r="D27" t="n">
+        <v>1.196345186769259</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.061999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6094940649773659</v>
+      </c>
+      <c r="G27" t="n">
         <v>1.148283846719832</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.6094940649773659</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
+        <v>2.116124806210451</v>
+      </c>
+      <c r="I27" t="n">
         <v>1.08140860928317</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.4179211469534052</v>
-      </c>
-      <c r="H27" t="n">
-        <v>16.41934184355881</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0.6923077894278937</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.196345186769259</v>
       </c>
     </row>
     <row r="28">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.059835164835165</v>
+        <v>0.4096825396825405</v>
       </c>
       <c r="C28" t="n">
         <v>-43.2661157373723</v>
       </c>
       <c r="D28" t="n">
+        <v>1.158841772128329</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.059835164835165</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-3.176520575850909</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.2555750422211635</v>
       </c>
-      <c r="E28" t="n">
-        <v>-3.176520575850909</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
+        <v>1.268939672506065</v>
+      </c>
+      <c r="I28" t="n">
         <v>0.2478046019928586</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.4096825396825405</v>
-      </c>
-      <c r="H28" t="n">
-        <v>18.54895185363068</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>0.9561899198492235</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.158841772128329</v>
       </c>
     </row>
     <row r="29">
@@ -1339,31 +1339,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.040054347826086</v>
+        <v>0.4265476190476178</v>
       </c>
       <c r="C29" t="n">
         <v>-44.0268914865707</v>
       </c>
       <c r="D29" t="n">
+        <v>0.8899611313330804</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.040054347826086</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.350492145430522</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.007012081819836528</v>
       </c>
-      <c r="E29" t="n">
-        <v>-1.350492145430522</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
+        <v>0.3797132291662706</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.7664631849295043</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.4265476190476178</v>
-      </c>
-      <c r="H29" t="n">
-        <v>19.46210226411313</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.6269900166253765</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.8899611313330804</v>
       </c>
     </row>
     <row r="30">
@@ -1373,31 +1373,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.935842391304347</v>
+        <v>0.5499143145161289</v>
       </c>
       <c r="C30" t="n">
         <v>-44.78884269231778</v>
       </c>
       <c r="D30" t="n">
+        <v>0.7721202361219905</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.935842391304347</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.046577870334768</v>
+      </c>
+      <c r="G30" t="n">
         <v>-0.7587471382947779</v>
       </c>
-      <c r="E30" t="n">
-        <v>-3.046577870334768</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
+        <v>-0.2599563041979991</v>
+      </c>
+      <c r="I30" t="n">
         <v>-0.2040902302660949</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.5499143145161289</v>
-      </c>
-      <c r="H30" t="n">
-        <v>21.34826561855039</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>0.08200849935616793</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.7721202361219905</v>
       </c>
     </row>
     <row r="31">
@@ -1407,31 +1407,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.60761111111111</v>
+        <v>0.5476099726775963</v>
       </c>
       <c r="C31" t="n">
         <v>-45.78530954474181</v>
       </c>
       <c r="D31" t="n">
+        <v>1.169828971545036</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.60761111111111</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.931926860693991</v>
+      </c>
+      <c r="G31" t="n">
         <v>-0.5114158635156758</v>
       </c>
-      <c r="E31" t="n">
-        <v>-3.931926860693991</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
+        <v>-1.300745421655506</v>
+      </c>
+      <c r="I31" t="n">
         <v>-0.849967902252813</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.5476099726775963</v>
-      </c>
-      <c r="H31" t="n">
-        <v>17.58189429884192</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>-0.3433735223151068</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.169828971545036</v>
       </c>
     </row>
     <row r="32">
@@ -1441,31 +1441,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.466016483516483</v>
+        <v>0.4489843750000007</v>
       </c>
       <c r="C32" t="n">
         <v>-46.1298265157611</v>
       </c>
       <c r="D32" t="n">
+        <v>0.6338787786225726</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.466016483516483</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.7958221338528745</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.6469765547358113</v>
       </c>
-      <c r="E32" t="n">
-        <v>-0.7958221338528745</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
+        <v>-1.702200274325435</v>
+      </c>
+      <c r="I32" t="n">
         <v>0.7891904519748107</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.4489843750000007</v>
-      </c>
-      <c r="H32" t="n">
-        <v>14.67928057630451</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>1.202893412487421</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6338787786225726</v>
       </c>
     </row>
     <row r="33">
@@ -1475,31 +1475,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.411304347826086</v>
+        <v>0.4350390625000009</v>
       </c>
       <c r="C33" t="n">
         <v>-46.23698830071212</v>
       </c>
       <c r="D33" t="n">
+        <v>0.6841639792446621</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.411304347826086</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.3978270266828355</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.481446957323881</v>
       </c>
-      <c r="E33" t="n">
-        <v>-0.3978270266828355</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
+        <v>-1.865991903808094</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.4520079229453731</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.4350390625000009</v>
-      </c>
-      <c r="H33" t="n">
-        <v>12.32086860842224</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>0.3906350604859103</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6841639792446621</v>
       </c>
     </row>
     <row r="34">
@@ -1509,31 +1509,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.204619565217391</v>
+        <v>0.5142968749999994</v>
       </c>
       <c r="C34" t="n">
         <v>-46.39999976984442</v>
       </c>
       <c r="D34" t="n">
+        <v>0.503613424094233</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.204619565217391</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.652904320197457</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.4679583735087706</v>
       </c>
-      <c r="E34" t="n">
-        <v>-0.652904320197457</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
+        <v>-2.114880949094129</v>
+      </c>
+      <c r="I34" t="n">
         <v>0.201951698703192</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.5142968749999994</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9.304051040904994</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>0.5721631092897534</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.503613424094233</v>
       </c>
     </row>
     <row r="35">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.006071428571428</v>
+        <v>0.473266129032258</v>
       </c>
       <c r="C35" t="n">
         <v>-46.48132435855418</v>
       </c>
       <c r="D35" t="n">
+        <v>0.6621223726514291</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.006071428571428</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.180927500250527</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.030442358557571</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.180927500250527</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
+        <v>-2.052195012918901</v>
+      </c>
+      <c r="I35" t="n">
         <v>1.742726438580211</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.473266129032258</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7.130161949554463</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>1.228339555379489</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6621223726514291</v>
       </c>
     </row>
     <row r="36">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9435164835164841</v>
+        <v>0.4378968253968256</v>
       </c>
       <c r="C36" t="n">
         <v>-46.0338011243147</v>
       </c>
       <c r="D36" t="n">
+        <v>0.5186721555782836</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9435164835164841</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.379654650556005</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.9596593017437606</v>
       </c>
-      <c r="E36" t="n">
-        <v>3.379654650556005</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
+        <v>-1.63189596355619</v>
+      </c>
+      <c r="I36" t="n">
         <v>0.6930179401879156</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.4378968253968256</v>
-      </c>
-      <c r="H36" t="n">
-        <v>6.340301264421214</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>0.2624515558078852</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5186721555782836</v>
       </c>
     </row>
     <row r="37">
@@ -1611,31 +1611,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8148097826086955</v>
+        <v>0.5213671874999992</v>
       </c>
       <c r="C37" t="n">
         <v>-45.91286237049047</v>
       </c>
       <c r="D37" t="n">
+        <v>0.4340309708925761</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8148097826086955</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.226295659539301</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.9763225758513078</v>
       </c>
-      <c r="E37" t="n">
-        <v>1.226295659539301</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
+        <v>-1.65062797490441</v>
+      </c>
+      <c r="I37" t="n">
         <v>1.252894678755183</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.5213671874999992</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.590595736149226</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>1.054626980296685</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4340309708925761</v>
       </c>
     </row>
     <row r="38">
@@ -1645,31 +1645,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.758722826086957</v>
+        <v>0.5317552923387101</v>
       </c>
       <c r="C38" t="n">
         <v>-46.24825914534391</v>
       </c>
       <c r="D38" t="n">
+        <v>0.5241071958327062</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.758722826086957</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.806471662652998</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.095812641439714</v>
       </c>
-      <c r="E38" t="n">
-        <v>2.806471662652998</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
+        <v>-1.68635002397275</v>
+      </c>
+      <c r="I38" t="n">
         <v>1.259302584954644</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.5317552923387101</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.447342242655964</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>-0.1371025309882777</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5241071958327062</v>
       </c>
     </row>
     <row r="39">
@@ -1679,31 +1679,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.7605833333333336</v>
+        <v>0.5328701745108417</v>
       </c>
       <c r="C39" t="n">
         <v>-46.01434944102772</v>
       </c>
       <c r="D39" t="n">
+        <v>0.7861756681138125</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7605833333333336</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3482218508723782</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.1207211220761134</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.3482218508723782</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
+        <v>-1.484164411793301</v>
+      </c>
+      <c r="I39" t="n">
         <v>0.09069769021235856</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.5328701745108417</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-2.089979304894541</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>-0.6124616996794719</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7861756681138125</v>
       </c>
     </row>
     <row r="40">
@@ -1713,31 +1713,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.7493131868131868</v>
+        <v>0.5377380952380946</v>
       </c>
       <c r="C40" t="n">
         <v>-45.4002235330046</v>
       </c>
       <c r="D40" t="n">
+        <v>0.5399795992363209</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7493131868131868</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.974489001589338</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.50544327111931</v>
       </c>
-      <c r="E40" t="n">
-        <v>1.974489001589338</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
+        <v>-0.7899452596450374</v>
+      </c>
+      <c r="I40" t="n">
         <v>0.9865946248610419</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.5377380952380946</v>
-      </c>
-      <c r="H40" t="n">
-        <v>-5.122869150704901</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>-0.176749109855844</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5399795992363209</v>
       </c>
     </row>
     <row r="41">
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.7644293478260871</v>
+        <v>0.5019140624999994</v>
       </c>
       <c r="C41" t="n">
         <v>-45.01269242754983</v>
       </c>
       <c r="D41" t="n">
+        <v>0.4468257407303039</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7644293478260871</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.558632306108256</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.5121905633034778</v>
       </c>
-      <c r="E41" t="n">
-        <v>1.558632306108256</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
+        <v>-0.5121504279489955</v>
+      </c>
+      <c r="I41" t="n">
         <v>0.9821846663228573</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.5019140624999994</v>
-      </c>
-      <c r="H41" t="n">
-        <v>-11.6735970997633</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>-0.02716379543587344</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.4468257407303039</v>
       </c>
     </row>
     <row r="42">
@@ -1781,31 +1781,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.7470652173913048</v>
+        <v>0.484679939516129</v>
       </c>
       <c r="C42" t="n">
         <v>-44.76344911547955</v>
       </c>
       <c r="D42" t="n">
+        <v>0.4852820719955324</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7470652173913048</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.002583620101161</v>
+      </c>
+      <c r="G42" t="n">
         <v>1.336569384824478</v>
       </c>
-      <c r="E42" t="n">
-        <v>4.002583620101161</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
+        <v>-0.3012698645304113</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.927238157116457</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.484679939516129</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-12.57336330257723</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>-0.1209793860945706</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.4852820719955324</v>
       </c>
     </row>
     <row r="43">
@@ -1815,31 +1815,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8023333333333335</v>
+        <v>0.4421812596006143</v>
       </c>
       <c r="C43" t="n">
         <v>-44.4048870401533</v>
       </c>
       <c r="D43" t="n">
+        <v>0.6359606717606738</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8023333333333335</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.19449949681857</v>
+      </c>
+      <c r="G43" t="n">
         <v>1.012221637161417</v>
       </c>
-      <c r="E43" t="n">
-        <v>1.19449949681857</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
+        <v>-0.1703546642193032</v>
+      </c>
+      <c r="I43" t="n">
         <v>0.8617369320331981</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.4421812596006143</v>
-      </c>
-      <c r="H43" t="n">
-        <v>-8.623643351987681</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>0.4924393736602579</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6359606717606738</v>
       </c>
     </row>
     <row r="44">
@@ -1849,31 +1849,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9845054945054948</v>
+        <v>0.377943548387097</v>
       </c>
       <c r="C44" t="n">
         <v>-43.74785610700907</v>
       </c>
       <c r="D44" t="n">
+        <v>0.4254425109839632</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9845054945054948</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.273549848980956</v>
+      </c>
+      <c r="G44" t="n">
         <v>1.295508370541835</v>
       </c>
-      <c r="E44" t="n">
-        <v>2.273549848980956</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
+        <v>0.7971982987293131</v>
+      </c>
+      <c r="I44" t="n">
         <v>0.8356208409712055</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.377943548387097</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.4010364954888246</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>-0.6396724750905918</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.4254425109839632</v>
       </c>
     </row>
     <row r="45">
@@ -1883,31 +1883,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.121358695652174</v>
+        <v>0.3774609374999998</v>
       </c>
       <c r="C45" t="n">
         <v>-43.48818327751007</v>
       </c>
       <c r="D45" t="n">
+        <v>0.6038632238678728</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.121358695652174</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.781348056947293</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.5588459986816212</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.781348056947293</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
+        <v>1.087985307794156</v>
+      </c>
+      <c r="I45" t="n">
         <v>0.9943820373327306</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.3774609374999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3.113752671699274</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>-0.6618420825354925</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6038632238678728</v>
       </c>
     </row>
     <row r="46">
@@ -1917,31 +1917,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.291983695652174</v>
+        <v>0.3426411657559199</v>
       </c>
       <c r="C46" t="n">
         <v>-42.79453820517479</v>
       </c>
       <c r="D46" t="n">
+        <v>0.4771805861947565</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.291983695652174</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.452077621394875</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.165017509207356</v>
       </c>
-      <c r="E46" t="n">
-        <v>2.452077621394875</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
+        <v>1.816622264313423</v>
+      </c>
+      <c r="I46" t="n">
         <v>0.9619323202289981</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.3426411657559199</v>
-      </c>
-      <c r="H46" t="n">
-        <v>7.214667296528205</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>0.08668448171009542</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.4771805861947565</v>
       </c>
     </row>
     <row r="47">
@@ -1951,31 +1951,31 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.450694444444444</v>
+        <v>0.3502726574500761</v>
       </c>
       <c r="C47" t="n">
         <v>-42.81013661198563</v>
       </c>
       <c r="D47" t="n">
+        <v>0.6531100624001077</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.450694444444444</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.020106542859495</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.2775459700813222</v>
       </c>
-      <c r="E47" t="n">
-        <v>2.020106542859495</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
+        <v>1.795024317283662</v>
+      </c>
+      <c r="I47" t="n">
         <v>-0.01159015199970428</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.3502726574500761</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3.504132329321237</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>0.11955294510689</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6531100624001077</v>
       </c>
     </row>
     <row r="48">
@@ -1985,31 +1985,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.50478021978022</v>
+        <v>0.4041666666666666</v>
       </c>
       <c r="C48" t="n">
         <v>-43.6800017184728</v>
       </c>
       <c r="D48" t="n">
+        <v>0.367412989291946</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.50478021978022</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.4129026866601077</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.179178957452611</v>
       </c>
-      <c r="E48" t="n">
-        <v>-0.4129026866601077</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
+        <v>1.05039449531813</v>
+      </c>
+      <c r="I48" t="n">
         <v>1.009261295744105</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.4041666666666666</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-4.171793485339549</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>0.2013161345749452</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.367412989291946</v>
       </c>
     </row>
     <row r="49">
@@ -2019,31 +2019,31 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.44929347826087</v>
+        <v>0.4331746031746033</v>
       </c>
       <c r="C49" t="n">
         <v>-43.59641182360189</v>
       </c>
       <c r="D49" t="n">
+        <v>0.42351778005732</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.44929347826087</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.03095476407675</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.811669491526184</v>
       </c>
-      <c r="E49" t="n">
-        <v>1.03095476407675</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
+        <v>1.464862884058903</v>
+      </c>
+      <c r="I49" t="n">
         <v>0.8692934560012527</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.4331746031746033</v>
-      </c>
-      <c r="H49" t="n">
-        <v>-6.075201314378319</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>0.1910193290128673</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.42351778005732</v>
       </c>
     </row>
     <row r="50">
@@ -2053,31 +2053,31 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.429864130434783</v>
+        <v>0.4369502048131082</v>
       </c>
       <c r="C50" t="n">
         <v>-43.73724290776242</v>
       </c>
       <c r="D50" t="n">
+        <v>0.4896910036854814</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.429864130434783</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.569675223794947</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.7287336379996764</v>
       </c>
-      <c r="E50" t="n">
-        <v>1.569675223794947</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
+        <v>1.240099547490388</v>
+      </c>
+      <c r="I50" t="n">
         <v>0.607821691445684</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.4369502048131082</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-11.3673558558703</v>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>0.4073443056279821</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4896910036854814</v>
       </c>
     </row>
     <row r="51">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.342747252747253</v>
+        <v>0.4491250640040965</v>
       </c>
       <c r="C51" t="n">
         <v>-44.08398483222177</v>
       </c>
       <c r="D51" t="n">
+        <v>0.6106363982768497</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.342747252747253</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.562039662746291</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.7026538012038402</v>
       </c>
-      <c r="E51" t="n">
-        <v>1.562039662746291</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
+        <v>0.4363853680214902</v>
+      </c>
+      <c r="I51" t="n">
         <v>0.8860905765891569</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.4491250640040965</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-10.57749173240217</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>0.3894648829464068</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6106363982768497</v>
       </c>
     </row>
     <row r="52">
@@ -2121,31 +2121,31 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.310989010989011</v>
+        <v>0.3951562499999997</v>
       </c>
       <c r="C52" t="n">
         <v>-43.26239382413095</v>
       </c>
       <c r="D52" t="n">
+        <v>0.334908320334637</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.310989010989011</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.562862850865045</v>
+      </c>
+      <c r="G52" t="n">
         <v>1.625795418607739</v>
       </c>
-      <c r="E52" t="n">
-        <v>2.562862850865045</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
+        <v>0.9614344367316221</v>
+      </c>
+      <c r="I52" t="n">
         <v>1.385333429809877</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.3951562499999997</v>
-      </c>
-      <c r="H52" t="n">
-        <v>-3.22866149238655</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>0.6140741198165393</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.334908320334637</v>
       </c>
     </row>
     <row r="53">
@@ -2155,31 +2155,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.326548913043478</v>
+        <v>0.3783984374999994</v>
       </c>
       <c r="C53" t="n">
         <v>-42.61227256564514</v>
       </c>
       <c r="D53" t="n">
+        <v>0.4784774605783084</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.326548913043478</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.110076929637274</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.8347474081652163</v>
       </c>
-      <c r="E53" t="n">
-        <v>2.110076929637274</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
+        <v>1.555646692878895</v>
+      </c>
+      <c r="I53" t="n">
         <v>0.5565401612203851</v>
       </c>
-      <c r="G53" t="n">
-        <v>0.3783984374999994</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-3.29084410398707</v>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>0.263547839650391</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4784774605783084</v>
       </c>
     </row>
     <row r="54">
@@ -2189,31 +2189,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.320217391304347</v>
+        <v>0.3922177419354842</v>
       </c>
       <c r="C54" t="n">
         <v>-42.32968572216601</v>
       </c>
       <c r="D54" t="n">
+        <v>0.4148128948916596</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.320217391304347</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.183671128531956</v>
+      </c>
+      <c r="G54" t="n">
         <v>1.162493127911353</v>
       </c>
-      <c r="E54" t="n">
-        <v>1.183671128531956</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
+        <v>2.015292280847746</v>
+      </c>
+      <c r="I54" t="n">
         <v>1.08094683633713</v>
       </c>
-      <c r="G54" t="n">
-        <v>0.3922177419354842</v>
-      </c>
-      <c r="H54" t="n">
-        <v>-7.812379971803864</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>0.0007919174444820637</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.4148128948916596</v>
       </c>
     </row>
     <row r="55">
@@ -2223,31 +2223,31 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.31961111111111</v>
+        <v>0.3772663934426224</v>
       </c>
       <c r="C55" t="n">
         <v>-42.18621559686777</v>
       </c>
       <c r="D55" t="n">
+        <v>0.5363811442940328</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.31961111111111</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.241725711886991</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.7702884612156978</v>
       </c>
-      <c r="E55" t="n">
-        <v>1.241725711886991</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
+        <v>2.421866589905733</v>
+      </c>
+      <c r="I55" t="n">
         <v>0.9930201816858466</v>
       </c>
-      <c r="G55" t="n">
-        <v>0.3772663934426224</v>
-      </c>
-      <c r="H55" t="n">
-        <v>-5.899704455657059</v>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>0.07030507817540305</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5363811442940328</v>
       </c>
     </row>
     <row r="56">
@@ -2257,31 +2257,31 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.38054945054945</v>
+        <v>0.3723437500000006</v>
       </c>
       <c r="C56" t="n">
         <v>-41.45853213574286</v>
       </c>
       <c r="D56" t="n">
+        <v>0.3448025533893311</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.38054945054945</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.664767369811909</v>
+      </c>
+      <c r="G56" t="n">
         <v>1.508001533317316</v>
       </c>
-      <c r="E56" t="n">
-        <v>1.664767369811909</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
+        <v>2.854685871133881</v>
+      </c>
+      <c r="I56" t="n">
         <v>0.3106816031763789</v>
       </c>
-      <c r="G56" t="n">
-        <v>0.3723437500000006</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-4.51024421110003</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>0.4352116222258141</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.3448025533893311</v>
       </c>
     </row>
     <row r="57">
@@ -2291,31 +2291,31 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.383668478260869</v>
+        <v>0.3791406249999991</v>
       </c>
       <c r="C57" t="n">
         <v>-41.15263340689607</v>
       </c>
       <c r="D57" t="n">
+        <v>0.2620107141569789</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.383668478260869</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.536009884732796</v>
+      </c>
+      <c r="G57" t="n">
         <v>1.237436587572172</v>
       </c>
-      <c r="E57" t="n">
-        <v>3.536009884732796</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
+        <v>3.154627145370171</v>
+      </c>
+      <c r="I57" t="n">
         <v>1.636719543908929</v>
       </c>
-      <c r="G57" t="n">
-        <v>0.3791406249999991</v>
-      </c>
-      <c r="H57" t="n">
-        <v>-9.908062581372462</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>0.7191211831164686</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.2620107141569789</v>
       </c>
     </row>
     <row r="58">
@@ -2325,31 +2325,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.376847826086956</v>
+        <v>0.3834677419354837</v>
       </c>
       <c r="C58" t="n">
         <v>-41.00696974491127</v>
       </c>
       <c r="D58" t="n">
+        <v>0.3375045652996451</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.376847826086956</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.3579188188123306</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.7347254564020709</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.3579188188123306</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
+        <v>3.179577807289377</v>
+      </c>
+      <c r="I58" t="n">
         <v>1.024728732546</v>
       </c>
-      <c r="G58" t="n">
-        <v>0.3834677419354837</v>
-      </c>
-      <c r="H58" t="n">
-        <v>-14.10093371426328</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>1.378383905522504</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.3375045652996451</v>
       </c>
     </row>
     <row r="59">
@@ -2359,31 +2359,31 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.379833333333333</v>
+        <v>0.4170901639344258</v>
       </c>
       <c r="C59" t="n">
         <v>-41.01881033015228</v>
       </c>
       <c r="D59" t="n">
+        <v>0.2417171420704392</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.379833333333333</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.20524444525494</v>
+      </c>
+      <c r="G59" t="n">
         <v>1.100457810235203</v>
       </c>
-      <c r="E59" t="n">
-        <v>2.20524444525494</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
+        <v>3.20571911780155</v>
+      </c>
+      <c r="I59" t="n">
         <v>0.9325859597436589</v>
       </c>
-      <c r="G59" t="n">
-        <v>0.4170901639344258</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-16.56123617999452</v>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>1.627979111179489</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.2417171420704392</v>
       </c>
     </row>
     <row r="60">
@@ -2393,31 +2393,31 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.374368131868132</v>
+        <v>0.4146031746031751</v>
       </c>
       <c r="C60" t="n">
         <v>-41.19366709537088</v>
       </c>
       <c r="D60" t="n">
+        <v>0.1954465743275343</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.374368131868132</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.480654492716167</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.6591775813347811</v>
       </c>
-      <c r="E60" t="n">
-        <v>2.480654492716167</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="H60" t="n">
+        <v>3.084661826040133</v>
+      </c>
+      <c r="I60" t="n">
         <v>1.547977782312809</v>
       </c>
-      <c r="G60" t="n">
-        <v>0.4146031746031751</v>
-      </c>
-      <c r="H60" t="n">
-        <v>-16.67033707685758</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>1.16971895877371</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.1954465743275343</v>
       </c>
     </row>
     <row r="61">
@@ -2427,31 +2427,31 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.382907608695652</v>
+        <v>0.4799609374999994</v>
       </c>
       <c r="C61" t="n">
         <v>-41.24005454023354</v>
       </c>
       <c r="D61" t="n">
+        <v>0.3483601582065484</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.382907608695652</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.001319436670689</v>
+      </c>
+      <c r="G61" t="n">
         <v>1.145130838697444</v>
       </c>
-      <c r="E61" t="n">
-        <v>1.001319436670689</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
+        <v>2.767553580961419</v>
+      </c>
+      <c r="I61" t="n">
         <v>1.181927591703757</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.4799609374999994</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-18.39851679811181</v>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>1.289460685542643</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.3483601582065484</v>
       </c>
     </row>
     <row r="62">
@@ -2461,31 +2461,31 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.215135869565217</v>
+        <v>0.6459274193548394</v>
       </c>
       <c r="C62" t="n">
         <v>-40.89245407751555</v>
       </c>
       <c r="D62" t="n">
+        <v>0.2904079634650693</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.215135869565217</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.543762250441393</v>
+      </c>
+      <c r="G62" t="n">
         <v>1.507445648218254</v>
       </c>
-      <c r="E62" t="n">
-        <v>2.543762250441393</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="H62" t="n">
+        <v>3.907063277052316</v>
+      </c>
+      <c r="I62" t="n">
         <v>1.416698846435584</v>
       </c>
-      <c r="G62" t="n">
-        <v>0.6459274193548394</v>
-      </c>
-      <c r="H62" t="n">
-        <v>-16.75012435740379</v>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>0.2216216966693823</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.2904079634650693</v>
       </c>
     </row>
     <row r="63">
@@ -2495,31 +2495,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.183638888888889</v>
+        <v>0.6028278688524591</v>
       </c>
       <c r="C63" t="n">
         <v>-41.16674026543842</v>
       </c>
       <c r="D63" t="n">
+        <v>0.3841899923223367</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.183638888888889</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.340622187348737</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.8451695900633491</v>
       </c>
-      <c r="E63" t="n">
-        <v>1.340622187348737</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
+        <v>3.86467902385084</v>
+      </c>
+      <c r="I63" t="n">
         <v>0.861442270180098</v>
       </c>
-      <c r="G63" t="n">
-        <v>0.6028278688524591</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-14.47838623450875</v>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>1.449840218383615</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.3841899923223367</v>
       </c>
     </row>
     <row r="64">
@@ -2529,31 +2529,31 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.186923076923077</v>
+        <v>0.5494921874999998</v>
       </c>
       <c r="C64" t="n">
         <v>-41.13414389507405</v>
       </c>
       <c r="D64" t="n">
+        <v>0.4380055726755398</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.186923076923077</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.981967068296073</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.8242465723692589</v>
       </c>
-      <c r="E64" t="n">
-        <v>1.981967068296073</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="H64" t="n">
+        <v>3.844037396486044</v>
+      </c>
+      <c r="I64" t="n">
         <v>1.758923138855068</v>
       </c>
-      <c r="G64" t="n">
-        <v>0.5494921874999998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-10.16011187447708</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>-0.03765634714971744</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.4380055726755398</v>
       </c>
     </row>
     <row r="65">
@@ -2563,31 +2563,31 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.273885869565218</v>
+        <v>0.5548437500000007</v>
       </c>
       <c r="C65" t="n">
         <v>-41.16186503886428</v>
       </c>
       <c r="D65" t="n">
+        <v>0.3280148861536713</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.273885869565218</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.428713672824215</v>
+      </c>
+      <c r="G65" t="n">
         <v>1.160120554163434</v>
       </c>
-      <c r="E65" t="n">
-        <v>1.428713672824215</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
+        <v>3.937627790712213</v>
+      </c>
+      <c r="I65" t="n">
         <v>1.262017366448595</v>
       </c>
-      <c r="G65" t="n">
-        <v>0.5548437500000007</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-5.574849288337816</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>0.5350136180958796</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.3280148861536713</v>
       </c>
     </row>
     <row r="66">
@@ -2597,31 +2597,31 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.326005434782608</v>
+        <v>0.5225601638504864</v>
       </c>
       <c r="C66" t="n">
         <v>-40.9319127682781</v>
       </c>
       <c r="D66" t="n">
+        <v>0.4610765584543006</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.326005434782608</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1890346087097386</v>
+      </c>
+      <c r="G66" t="n">
         <v>1.76187061300961</v>
       </c>
-      <c r="E66" t="n">
-        <v>0.1890346087097386</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
+        <v>4.045297437365207</v>
+      </c>
+      <c r="I66" t="n">
         <v>1.361097862720601</v>
       </c>
-      <c r="G66" t="n">
-        <v>0.5225601638504864</v>
-      </c>
-      <c r="H66" t="n">
-        <v>-3.949886344388062</v>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>1.554162740819812</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.4610765584543006</v>
       </c>
     </row>
     <row r="67">
@@ -2631,31 +2631,31 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.419423076923077</v>
+        <v>0.465595238095238</v>
       </c>
       <c r="C67" t="n">
         <v>-40.69038606128207</v>
       </c>
       <c r="D67" t="n">
+        <v>0.8262295001074742</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.419423076923077</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.447679035279164</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.2530117476877062</v>
       </c>
-      <c r="E67" t="n">
-        <v>2.447679035279164</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
+        <v>4.105652035410913</v>
+      </c>
+      <c r="I67" t="n">
         <v>1.625746514815727</v>
       </c>
-      <c r="G67" t="n">
-        <v>0.465595238095238</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-2.794313671346742</v>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>2.643571474736089</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.8262295001074742</v>
       </c>
     </row>
     <row r="68">
@@ -2665,31 +2665,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.567994505494505</v>
+        <v>0.6048015873015873</v>
       </c>
       <c r="C68" t="n">
         <v>-40.85767752084306</v>
       </c>
       <c r="D68" t="n">
+        <v>0.490275857484693</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.567994505494505</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.094157905868215</v>
+      </c>
+      <c r="G68" t="n">
         <v>1.558606013396516</v>
       </c>
-      <c r="E68" t="n">
-        <v>2.094157905868215</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="H68" t="n">
+        <v>3.751624194784881</v>
+      </c>
+      <c r="I68" t="n">
         <v>0.6248534369149708</v>
       </c>
-      <c r="G68" t="n">
-        <v>0.6048015873015873</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.4340105468759816</v>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>-0.2252730410481293</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.490275857484693</v>
       </c>
     </row>
     <row r="69">
@@ -2699,31 +2699,31 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.629864130434783</v>
+        <v>0.6057936507936512</v>
       </c>
       <c r="C69" t="n">
         <v>-41.65137100735753</v>
       </c>
       <c r="D69" t="n">
+        <v>0.4609524162623116</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.629864130434783</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.1528953006048725</v>
+      </c>
+      <c r="G69" t="n">
         <v>-0.11481115843701</v>
       </c>
-      <c r="E69" t="n">
-        <v>-0.1528953006048725</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
+        <v>3.078573202312555</v>
+      </c>
+      <c r="I69" t="n">
         <v>0.961771941093969</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.6057936507936512</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-3.007940059142982</v>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>1.498950395177451</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.4609524162623116</v>
       </c>
     </row>
     <row r="70">
@@ -2733,31 +2733,31 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.618722826086957</v>
+        <v>0.6617338709677425</v>
       </c>
       <c r="C70" t="n">
         <v>-41.67574604700073</v>
       </c>
       <c r="D70" t="n">
+        <v>0.4439408469634368</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.618722826086957</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.03663235316105271</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.5181437549082167</v>
       </c>
-      <c r="E70" t="n">
-        <v>-0.03663235316105271</v>
-      </c>
-      <c r="F70" t="n">
+      <c r="H70" t="n">
+        <v>2.928734668272455</v>
+      </c>
+      <c r="I70" t="n">
         <v>0.8405346775293431</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.6617338709677425</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-4.162602421975294</v>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>0.1252227237608183</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.4439408469634368</v>
       </c>
     </row>
     <row r="71">
@@ -2767,31 +2767,31 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.399249999999999</v>
+        <v>0.709395161290322</v>
       </c>
       <c r="C71" t="n">
         <v>-41.84542765467202</v>
       </c>
       <c r="D71" t="n">
+        <v>0.8111066555922558</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.399249999999999</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1.538339588391239</v>
+      </c>
+      <c r="G71" t="n">
         <v>-0.1224492014175331</v>
       </c>
-      <c r="E71" t="n">
-        <v>-1.538339588391239</v>
-      </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
+        <v>2.44471763204092</v>
+      </c>
+      <c r="I71" t="n">
         <v>0.4067742876503316</v>
       </c>
-      <c r="G71" t="n">
-        <v>0.709395161290322</v>
-      </c>
-      <c r="H71" t="n">
-        <v>-8.33488345669187</v>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>0.8302048569634537</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.8111066555922558</v>
       </c>
     </row>
     <row r="72">
@@ -2801,31 +2801,31 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.081675824175824</v>
+        <v>0.6905555555555554</v>
       </c>
       <c r="C72" t="n">
         <v>-42.89821316791675</v>
       </c>
       <c r="D72" t="n">
+        <v>0.7684154847844504</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.081675824175824</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-2.594868245490738</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.3063470788034233</v>
       </c>
-      <c r="E72" t="n">
-        <v>-2.594868245490738</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="H72" t="n">
+        <v>1.325926795344742</v>
+      </c>
+      <c r="I72" t="n">
         <v>0.1146988349817378</v>
       </c>
-      <c r="G72" t="n">
-        <v>0.6905555555555554</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-6.367022643012774</v>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>-0.1828974110579861</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.7684154847844504</v>
       </c>
     </row>
     <row r="73">
@@ -2835,31 +2835,31 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.8753804347826085</v>
+        <v>0.7361475409836067</v>
       </c>
       <c r="C73" t="n">
         <v>-43.78100680009076</v>
       </c>
       <c r="D73" t="n">
+        <v>0.3902824741287567</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8753804347826085</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.9903751978240094</v>
+      </c>
+      <c r="G73" t="n">
         <v>-0.3519243152824128</v>
       </c>
-      <c r="E73" t="n">
-        <v>-0.9903751978240094</v>
-      </c>
-      <c r="F73" t="n">
+      <c r="H73" t="n">
+        <v>0.3458905120903637</v>
+      </c>
+      <c r="I73" t="n">
         <v>0.1913237878704981</v>
       </c>
-      <c r="G73" t="n">
-        <v>0.7361475409836067</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-7.594729684659512</v>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>0.1532205057472692</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.3902824741287567</v>
       </c>
     </row>
     <row r="74">
@@ -2869,31 +2869,31 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5326086956521739</v>
+        <v>0.7895167900581712</v>
       </c>
       <c r="C74" t="n">
         <v>-44.75795199166143</v>
       </c>
       <c r="D74" t="n">
+        <v>0.4198012112401862</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5326086956521739</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3.206321040058473</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.3933052271613229</v>
       </c>
-      <c r="E74" t="n">
-        <v>-3.206321040058473</v>
-      </c>
-      <c r="F74" t="n">
+      <c r="H74" t="n">
+        <v>-0.5624834581728919</v>
+      </c>
+      <c r="I74" t="n">
         <v>1.403812455976376</v>
       </c>
-      <c r="G74" t="n">
-        <v>0.7895167900581712</v>
-      </c>
-      <c r="H74" t="n">
-        <v>-7.848996015614148</v>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>0.3076405365812666</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.4198012112401862</v>
       </c>
     </row>
     <row r="75">
@@ -2903,31 +2903,31 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4332222222222226</v>
+        <v>0.718958333333334</v>
       </c>
       <c r="C75" t="n">
         <v>-45.00300581977415</v>
       </c>
       <c r="D75" t="n">
+        <v>0.4170805610668576</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.4332222222222226</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-2.132128903562652</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.676816429647115</v>
       </c>
-      <c r="E75" t="n">
-        <v>-2.132128903562652</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="H75" t="n">
+        <v>-0.8383971416089935</v>
+      </c>
+      <c r="I75" t="n">
         <v>0.1641134671750923</v>
       </c>
-      <c r="G75" t="n">
-        <v>0.718958333333334</v>
-      </c>
-      <c r="H75" t="n">
-        <v>-7.410120276969934</v>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>1.153584418529487</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.4170805610668576</v>
       </c>
     </row>
     <row r="76">
@@ -2937,31 +2937,31 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.4378846153846155</v>
+        <v>0.7299218750000001</v>
       </c>
       <c r="C76" t="n">
         <v>-44.86799051035702</v>
       </c>
       <c r="D76" t="n">
+        <v>0.3768733647161102</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.4378846153846155</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.6060852312729975</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.5427598048978117</v>
       </c>
-      <c r="E76" t="n">
-        <v>-0.6060852312729975</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="H76" t="n">
+        <v>-0.5445085439213813</v>
+      </c>
+      <c r="I76" t="n">
         <v>0.8975427584887243</v>
       </c>
-      <c r="G76" t="n">
-        <v>0.7299218750000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-6.524284825684845</v>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>0.6721419935359457</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.3768733647161102</v>
       </c>
     </row>
     <row r="77">
@@ -2971,31 +2971,31 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.4352173913043478</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="C77" t="n">
         <v>-44.94457587296313</v>
       </c>
       <c r="D77" t="n">
+        <v>0.3869591128448416</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.4352173913043478</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.5145264218908784</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.5874096891219988</v>
       </c>
-      <c r="E77" t="n">
-        <v>-0.5145264218908784</v>
-      </c>
-      <c r="F77" t="n">
+      <c r="H77" t="n">
+        <v>-0.6974399364676174</v>
+      </c>
+      <c r="I77" t="n">
         <v>0.6126257374196123</v>
       </c>
-      <c r="G77" t="n">
-        <v>0.8399999999999994</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-11.55068908093142</v>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>0.1220987828536571</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.3869591128448416</v>
       </c>
     </row>
     <row r="78">
@@ -3005,31 +3005,31 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.3610597826086956</v>
+        <v>0.8991532258064512</v>
       </c>
       <c r="C78" t="n">
         <v>-45.56447774344254</v>
       </c>
       <c r="D78" t="n">
+        <v>0.5533456082462325</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.3610597826086956</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.1711308481236317</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.05052881984006585</v>
       </c>
-      <c r="E78" t="n">
-        <v>-0.1711308481236317</v>
-      </c>
-      <c r="F78" t="n">
+      <c r="H78" t="n">
+        <v>-1.149116281797376</v>
+      </c>
+      <c r="I78" t="n">
         <v>0.2076196139382018</v>
       </c>
-      <c r="G78" t="n">
-        <v>0.8991532258064512</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-11.95626338078733</v>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>-0.573988567694194</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5533456082462325</v>
       </c>
     </row>
     <row r="79">
@@ -3039,31 +3039,31 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3124166666666667</v>
+        <v>0.7999590163934428</v>
       </c>
       <c r="C79" t="n">
         <v>-45.89768350870117</v>
       </c>
       <c r="D79" t="n">
+        <v>0.7746825155223669</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.3124166666666667</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.1093019040737192</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.2986877770750824</v>
       </c>
-      <c r="E79" t="n">
-        <v>-0.1093019040737192</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="H79" t="n">
+        <v>-1.728153961487862</v>
+      </c>
+      <c r="I79" t="n">
         <v>0.4927886115186563</v>
       </c>
-      <c r="G79" t="n">
-        <v>0.7999590163934428</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-18.50171638986987</v>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>0.6024531868168667</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.7746825155223669</v>
       </c>
     </row>
     <row r="80">
@@ -3073,31 +3073,31 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.311675824175824</v>
+        <v>0.7132936507936511</v>
       </c>
       <c r="C80" t="n">
         <v>-46.34244145219809</v>
       </c>
       <c r="D80" t="n">
+        <v>0.3153653389392717</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.311675824175824</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.013152112984366</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.8525670289972193</v>
       </c>
-      <c r="E80" t="n">
-        <v>2.013152112984366</v>
-      </c>
-      <c r="F80" t="n">
+      <c r="H80" t="n">
+        <v>-1.880022286742133</v>
+      </c>
+      <c r="I80" t="n">
         <v>0.7424179285001939</v>
       </c>
-      <c r="G80" t="n">
-        <v>0.7132936507936511</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-28.01371312043923</v>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>1.283160434102258</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.3153653389392717</v>
       </c>
     </row>
     <row r="81">
@@ -3107,31 +3107,31 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2542119565217391</v>
+        <v>0.6438671874999999</v>
       </c>
       <c r="C81" t="n">
         <v>-46.75761664151491</v>
       </c>
       <c r="D81" t="n">
+        <v>0.5077775941463397</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.2542119565217391</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.014545736028002</v>
+      </c>
+      <c r="G81" t="n">
         <v>1.804875449648623</v>
       </c>
-      <c r="E81" t="n">
-        <v>3.014545736028002</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="H81" t="n">
+        <v>-2.410073996446272</v>
+      </c>
+      <c r="I81" t="n">
         <v>1.493885495247254</v>
       </c>
-      <c r="G81" t="n">
-        <v>0.6438671874999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-23.05197991186748</v>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>0.8035425434530054</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5077775941463397</v>
       </c>
     </row>
     <row r="82">
@@ -3141,31 +3141,31 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2491847826086955</v>
+        <v>0.594354838709678</v>
       </c>
       <c r="C82" t="n">
         <v>-46.47380305916409</v>
       </c>
       <c r="D82" t="n">
+        <v>0.5499967095982701</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.2491847826086955</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.670942269301873</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.6546652538570708</v>
       </c>
-      <c r="E82" t="n">
-        <v>1.670942269301873</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
+        <v>-2.072512633006511</v>
+      </c>
+      <c r="I82" t="n">
         <v>0.380222727740155</v>
       </c>
-      <c r="G82" t="n">
-        <v>0.594354838709678</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-25.13949708013376</v>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>0.3021226481335962</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5499967095982701</v>
       </c>
     </row>
     <row r="83">
@@ -3175,31 +3175,31 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2504670329670329</v>
+        <v>0.5640725806451614</v>
       </c>
       <c r="C83" t="n">
         <v>-46.07025583885695</v>
       </c>
       <c r="D83" t="n">
+        <v>0.9062945069872314</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2504670329670329</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0331151268797816</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.7291589900734896</v>
       </c>
-      <c r="E83" t="n">
-        <v>0.0331151268797816</v>
-      </c>
-      <c r="F83" t="n">
+      <c r="H83" t="n">
+        <v>-1.718363044971625</v>
+      </c>
+      <c r="I83" t="n">
         <v>1.044335031142629</v>
       </c>
-      <c r="G83" t="n">
-        <v>0.5640725806451614</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-31.27173401023677</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>-0.9344074427186128</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.9062945069872314</v>
       </c>
     </row>
     <row r="84">
@@ -3209,31 +3209,31 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2528296703296703</v>
+        <v>0.5162096774193548</v>
       </c>
       <c r="C84" t="n">
         <v>-46.23675923243145</v>
       </c>
       <c r="D84" t="n">
+        <v>0.9247184795050015</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.2528296703296703</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3.2576270464653</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.8556181730074055</v>
       </c>
-      <c r="E84" t="n">
-        <v>3.2576270464653</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="H84" t="n">
+        <v>-2.198242570783634</v>
+      </c>
+      <c r="I84" t="n">
         <v>0.6217115403526761</v>
       </c>
-      <c r="G84" t="n">
-        <v>0.5162096774193548</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-25.14918090331477</v>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>0.2964375750173121</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.9247184795050015</v>
       </c>
     </row>
     <row r="85">
@@ -3243,31 +3243,31 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3576902173913044</v>
+        <v>0.5375390625000001</v>
       </c>
       <c r="C85" t="n">
         <v>-45.98649281978405</v>
       </c>
       <c r="D85" t="n">
+        <v>0.5680588081876239</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.3576902173913044</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.597296843242843</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.8847171160717024</v>
       </c>
-      <c r="E85" t="n">
-        <v>2.597296843242843</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="H85" t="n">
+        <v>-2.011824008846759</v>
+      </c>
+      <c r="I85" t="n">
         <v>0.7770950823478908</v>
       </c>
-      <c r="G85" t="n">
-        <v>0.5375390625000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-28.35795150270769</v>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>0.764010936566182</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5680588081876239</v>
       </c>
     </row>
     <row r="86">
@@ -3277,31 +3277,31 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.4874728260869566</v>
+        <v>0.5025806451612902</v>
       </c>
       <c r="C86" t="n">
         <v>-46.05971240593893</v>
       </c>
       <c r="D86" t="n">
+        <v>0.7891770063114183</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.4874728260869566</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.92999179424911</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.6290351564663436</v>
       </c>
-      <c r="E86" t="n">
-        <v>1.92999179424911</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="H86" t="n">
+        <v>-1.882207535912528</v>
+      </c>
+      <c r="I86" t="n">
         <v>0.9926885384200063</v>
       </c>
-      <c r="G86" t="n">
-        <v>0.5025806451612902</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-32.55923317591714</v>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>0.499586314917211</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.7891770063114183</v>
       </c>
     </row>
     <row r="87">
@@ -3311,31 +3311,31 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.6172500000000001</v>
+        <v>0.4166803278688531</v>
       </c>
       <c r="C87" t="n">
         <v>-45.99853001611664</v>
       </c>
       <c r="D87" t="n">
+        <v>0.9898712009737896</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.6172500000000001</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.44361486593121</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.7327392258561385</v>
       </c>
-      <c r="E87" t="n">
-        <v>1.44361486593121</v>
-      </c>
-      <c r="F87" t="n">
+      <c r="H87" t="n">
+        <v>-2.1389573231329</v>
+      </c>
+      <c r="I87" t="n">
         <v>0.04801242898436769</v>
       </c>
-      <c r="G87" t="n">
-        <v>0.4166803278688531</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-36.11000192571819</v>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>-0.1483585390102978</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.9898712009737896</v>
       </c>
     </row>
     <row r="88">
@@ -3345,31 +3345,31 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.7354395604395604</v>
+        <v>0.4526953124999997</v>
       </c>
       <c r="C88" t="n">
         <v>-45.47477688188138</v>
       </c>
       <c r="D88" t="n">
+        <v>0.5166540593334729</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.7354395604395604</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.345274372145874</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.6443090949852219</v>
       </c>
-      <c r="E88" t="n">
-        <v>2.345274372145874</v>
-      </c>
-      <c r="F88" t="n">
+      <c r="H88" t="n">
+        <v>-1.387142513422191</v>
+      </c>
+      <c r="I88" t="n">
         <v>1.003024138205245</v>
       </c>
-      <c r="G88" t="n">
-        <v>0.4526953124999997</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-36.1259632752585</v>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>-0.1535438710418746</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5166540593334729</v>
       </c>
     </row>
     <row r="89">
@@ -3379,31 +3379,31 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.8650000000000001</v>
+        <v>0.4414843749999997</v>
       </c>
       <c r="C89" t="n">
         <v>-45.24398743522662</v>
       </c>
       <c r="D89" t="n">
+        <v>1.000699093021529</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8650000000000001</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.584030116583909</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.9447199526411886</v>
       </c>
-      <c r="E89" t="n">
-        <v>1.584030116583909</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="H89" t="n">
+        <v>-1.321345679530964</v>
+      </c>
+      <c r="I89" t="n">
         <v>1.071570520045307</v>
       </c>
-      <c r="G89" t="n">
-        <v>0.4414843749999997</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-35.92984119835276</v>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>0.4246028844288456</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.000699093021529</v>
       </c>
     </row>
     <row r="90">
@@ -3413,31 +3413,31 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9945652173913042</v>
+        <v>0.4619672131147539</v>
       </c>
       <c r="C90" t="n">
         <v>-45.15044146900668</v>
       </c>
       <c r="D90" t="n">
+        <v>0.9200891141416953</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9945652173913042</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.042958997385506</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.3261643379240337</v>
       </c>
-      <c r="E90" t="n">
-        <v>1.042958997385506</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="H90" t="n">
+        <v>-1.21928455801708</v>
+      </c>
+      <c r="I90" t="n">
         <v>0.2406215419566891</v>
       </c>
-      <c r="G90" t="n">
-        <v>0.4619672131147539</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-30.16438607052842</v>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>-0.2451145735794066</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.9200891141416953</v>
       </c>
     </row>
     <row r="91">
@@ -3447,31 +3447,31 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.113527777777777</v>
+        <v>0.4336693548387101</v>
       </c>
       <c r="C91" t="n">
         <v>-44.80912073286623</v>
       </c>
       <c r="D91" t="n">
+        <v>0.8692985650799354</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.113527777777777</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.35581168259797</v>
+      </c>
+      <c r="G91" t="n">
         <v>1.176515808145579</v>
       </c>
-      <c r="E91" t="n">
-        <v>2.35581168259797</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="H91" t="n">
+        <v>-0.8587547888731137</v>
+      </c>
+      <c r="I91" t="n">
         <v>0.6106391601375187</v>
       </c>
-      <c r="G91" t="n">
-        <v>0.4336693548387101</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-30.54850558084499</v>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>0.787992793670105</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.8692985650799354</v>
       </c>
     </row>
     <row r="92">
@@ -3481,31 +3481,31 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.226895604395605</v>
+        <v>0.4162698412698409</v>
       </c>
       <c r="C92" t="n">
         <v>-44.49809334006444</v>
       </c>
       <c r="D92" t="n">
+        <v>0.6737052822196231</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.226895604395605</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.4769764071501741</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.661071313246069</v>
       </c>
-      <c r="E92" t="n">
-        <v>-0.4769764071501741</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="H92" t="n">
+        <v>-0.7480025582173084</v>
+      </c>
+      <c r="I92" t="n">
         <v>0.8173989768444696</v>
       </c>
-      <c r="G92" t="n">
-        <v>0.4162698412698409</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-24.01717005615532</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>-0.6796931986061553</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6737052822196231</v>
       </c>
     </row>
     <row r="93">
@@ -3515,31 +3515,31 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.311331521739131</v>
+        <v>0.4249206349206343</v>
       </c>
       <c r="C93" t="n">
         <v>-44.45757653104611</v>
       </c>
       <c r="D93" t="n">
+        <v>0.6785902506120579</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.311331521739131</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-1.536964619751223</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.1981792932020912</v>
       </c>
-      <c r="E93" t="n">
-        <v>-1.536964619751223</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="H93" t="n">
+        <v>-0.4372409185694437</v>
+      </c>
+      <c r="I93" t="n">
         <v>0.6417100439635193</v>
       </c>
-      <c r="G93" t="n">
-        <v>0.4249206349206343</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-26.1866901664352</v>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>-0.3175617652250704</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6785902506120579</v>
       </c>
     </row>
     <row r="94">
@@ -3549,31 +3549,31 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.310733695652174</v>
+        <v>0.4131451612903223</v>
       </c>
       <c r="C94" t="n">
         <v>-44.059983917393</v>
       </c>
       <c r="D94" t="n">
+        <v>0.5390664999303616</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.310733695652174</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-1.726244234551393</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.3731726171752976</v>
       </c>
-      <c r="E94" t="n">
-        <v>-1.726244234551393</v>
-      </c>
-      <c r="F94" t="n">
+      <c r="H94" t="n">
+        <v>-0.1014111376096594</v>
+      </c>
+      <c r="I94" t="n">
         <v>0.2473915189488285</v>
       </c>
-      <c r="G94" t="n">
-        <v>0.4131451612903223</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-31.00183525115429</v>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>2.361153234844049</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5390664999303616</v>
       </c>
     </row>
     <row r="95">
@@ -3583,31 +3583,31 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.313638888888889</v>
+        <v>0.4041532258064513</v>
       </c>
       <c r="C95" t="n">
         <v>-44.43311434671708</v>
       </c>
       <c r="D95" t="n">
+        <v>1.008133535602557</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.313638888888889</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-1.485104278533823</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.01232709055809781</v>
       </c>
-      <c r="E95" t="n">
-        <v>-1.485104278533823</v>
-      </c>
-      <c r="F95" t="n">
+      <c r="H95" t="n">
+        <v>-0.5089487315669317</v>
+      </c>
+      <c r="I95" t="n">
         <v>0.7699923798801223</v>
       </c>
-      <c r="G95" t="n">
-        <v>0.4041532258064513</v>
-      </c>
-      <c r="H95" t="n">
-        <v>-30.80437144210472</v>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>0.5400915463536593</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.008133535602557</v>
       </c>
     </row>
     <row r="96">
@@ -3617,31 +3617,31 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.313104395604396</v>
+        <v>0.4110546875000003</v>
       </c>
       <c r="C96" t="n">
         <v>-44.66623484339283</v>
       </c>
       <c r="D96" t="n">
+        <v>0.4998626562982654</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.313104395604396</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1868152725566</v>
+      </c>
+      <c r="G96" t="n">
         <v>1.169419695456269</v>
       </c>
-      <c r="E96" t="n">
-        <v>0.1868152725566</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="H96" t="n">
+        <v>-0.7797322340388178</v>
+      </c>
+      <c r="I96" t="n">
         <v>0.8830314393574633</v>
       </c>
-      <c r="G96" t="n">
-        <v>0.4110546875000003</v>
-      </c>
-      <c r="H96" t="n">
-        <v>-27.75911840011327</v>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>-0.1756652445377972</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.4998626562982654</v>
       </c>
     </row>
     <row r="97">
@@ -3651,31 +3651,31 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.268586956521739</v>
+        <v>0.4739285714285724</v>
       </c>
       <c r="C97" t="n">
         <v>-45.00001964567141</v>
       </c>
       <c r="D97" t="n">
+        <v>0.3782648603579029</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.268586956521739</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.7093369493827227</v>
+      </c>
+      <c r="G97" t="n">
         <v>1.161923519349422</v>
       </c>
-      <c r="E97" t="n">
-        <v>-0.7093369493827227</v>
-      </c>
-      <c r="F97" t="n">
+      <c r="H97" t="n">
+        <v>-1.142795459273145</v>
+      </c>
+      <c r="I97" t="n">
         <v>0.7358820427255129</v>
       </c>
-      <c r="G97" t="n">
-        <v>0.4739285714285724</v>
-      </c>
-      <c r="H97" t="n">
-        <v>-25.5674782805817</v>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>0.4448689811196403</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.3782648603579029</v>
       </c>
     </row>
     <row r="98">
@@ -3685,31 +3685,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.123913043478261</v>
+        <v>0.5597983870967749</v>
       </c>
       <c r="C98" t="n">
         <v>-45.12636273017741</v>
       </c>
       <c r="D98" t="n">
+        <v>0.6993093570722235</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.123913043478261</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-1.996807815347466</v>
+      </c>
+      <c r="G98" t="n">
         <v>-0.04301741411233172</v>
       </c>
-      <c r="E98" t="n">
-        <v>-1.996807815347466</v>
-      </c>
-      <c r="F98" t="n">
+      <c r="H98" t="n">
+        <v>-1.533344778212779</v>
+      </c>
+      <c r="I98" t="n">
         <v>0.5931184804424181</v>
       </c>
-      <c r="G98" t="n">
-        <v>0.5597983870967749</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-27.52067861649311</v>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>0.8880433280437335</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6993093570722235</v>
       </c>
     </row>
     <row r="99">
@@ -3719,31 +3719,31 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.7953571428571427</v>
+        <v>0.770901639344262</v>
       </c>
       <c r="C99" t="n">
         <v>-45.41938226035689</v>
       </c>
       <c r="D99" t="n">
+        <v>0.6492377582805906</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7953571428571427</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-2.160553501612355</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.2174782841721492</v>
       </c>
-      <c r="E99" t="n">
-        <v>-2.160553501612355</v>
-      </c>
-      <c r="F99" t="n">
+      <c r="H99" t="n">
+        <v>-1.674035747605274</v>
+      </c>
+      <c r="I99" t="n">
         <v>0.4528910117144108</v>
       </c>
-      <c r="G99" t="n">
-        <v>0.770901639344262</v>
-      </c>
-      <c r="H99" t="n">
-        <v>-23.85293801993274</v>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>0.5529426057911669</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6492377582805906</v>
       </c>
     </row>
     <row r="100">
@@ -3753,30 +3753,30 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.5211813186813187</v>
+        <v>0.77703125</v>
       </c>
       <c r="C100" t="n">
         <v>-45.66496862338042</v>
       </c>
       <c r="D100" t="n">
+        <v>0.2627841838076084</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.5211813186813187</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.5899749679283601</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.4677349125184843</v>
       </c>
-      <c r="E100" t="n">
-        <v>-0.5899749679283601</v>
-      </c>
-      <c r="F100" t="n">
+      <c r="H100" t="n">
+        <v>-1.911601980096918</v>
+      </c>
+      <c r="I100" t="n">
         <v>1.146901635473386</v>
       </c>
-      <c r="G100" t="n">
-        <v>0.77703125</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-20.34660160369975</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.2627841838076084</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3800,47 +3800,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>baag10_obs</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>hours_dngs15_obs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gdpdef_obs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>ffr_obs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>hours_dngs15_obs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ifi_rgd_obs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>gdp_rgd_obs</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ifi_rgd_obs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hours_sw07_obs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>c_rgd_obs</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>baag10_obs</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hours_sw07_obs</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gdpdef_obs</t>
         </is>
       </c>
     </row>
@@ -3851,31 +3851,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.357527173913042</v>
+        <v>0.4793750000000001</v>
       </c>
       <c r="C2" t="n">
         <v>-48.11887071668924</v>
       </c>
       <c r="D2" t="n">
+        <v>0.7266567904379688</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.357527173913042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.097964268211576</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.025564108005466</v>
       </c>
-      <c r="E2" t="n">
-        <v>5.097964268211576</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>-4.33465653549456</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.511276052260173</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.4793750000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.26580041541393</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.3624400212747939</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7266567904379688</v>
       </c>
     </row>
     <row r="3">
@@ -3885,31 +3885,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.422142857142858</v>
+        <v>0.4472043010752684</v>
       </c>
       <c r="C3" t="n">
         <v>-47.39609020999638</v>
       </c>
       <c r="D3" t="n">
+        <v>1.231405465219398</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.422142857142858</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.943971012166603</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.936235790033202</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.943971012166603</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>-3.375287343407592</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.6928772202748821</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.4472043010752684</v>
-      </c>
-      <c r="H3" t="n">
-        <v>47.26519934912494</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.0187856805383563</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.231405465219398</v>
       </c>
     </row>
     <row r="4">
@@ -3919,31 +3919,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.638681318681318</v>
+        <v>0.3715079365079372</v>
       </c>
       <c r="C4" t="n">
         <v>-46.42621826985631</v>
       </c>
       <c r="D4" t="n">
+        <v>0.8951704511168035</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.638681318681318</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.573903360677676</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.706469651844471</v>
       </c>
-      <c r="E4" t="n">
-        <v>3.573903360677676</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>-2.134274292068199</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.498138642404912</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.3715079365079372</v>
-      </c>
-      <c r="H4" t="n">
-        <v>53.9945629225241</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.08341637990603153</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8951704511168035</v>
       </c>
     </row>
     <row r="5">
@@ -3953,31 +3953,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.848070652173912</v>
+        <v>0.4592063492063501</v>
       </c>
       <c r="C5" t="n">
         <v>-46.575938127631</v>
       </c>
       <c r="D5" t="n">
+        <v>0.812244179649391</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.848070652173912</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.606450772325527</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.9680650943139526</v>
       </c>
-      <c r="E5" t="n">
-        <v>1.606450772325527</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>-2.44122653150157</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.7282944685638685</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.4592063492063501</v>
-      </c>
-      <c r="H5" t="n">
-        <v>54.06256700538961</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.5550377060815963</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.812244179649391</v>
       </c>
     </row>
     <row r="6">
@@ -3987,31 +3987,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.315624999999999</v>
+        <v>0.461502732240437</v>
       </c>
       <c r="C6" t="n">
         <v>-46.51931360714195</v>
       </c>
       <c r="D6" t="n">
+        <v>0.5909931339029607</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.315624999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.469439594879773</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.81826138930721</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.469439594879773</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>-2.284652526120738</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.343985983996555</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.461502732240437</v>
-      </c>
-      <c r="H6" t="n">
-        <v>46.26580041541393</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.1708529278791655</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5909931339029607</v>
       </c>
     </row>
     <row r="7">
@@ -4021,31 +4021,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.118777777777778</v>
+        <v>0.4517083333333329</v>
       </c>
       <c r="C7" t="n">
         <v>-46.48957156663951</v>
       </c>
       <c r="D7" t="n">
+        <v>1.145594478509028</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.118777777777778</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.07423218461064494</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.9191163672064832</v>
       </c>
-      <c r="E7" t="n">
-        <v>-0.07423218461064494</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>-1.805944288575745</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.591468227671218</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.4517083333333329</v>
-      </c>
-      <c r="H7" t="n">
-        <v>44.68552061592288</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.0936451387024257</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.145594478509028</v>
       </c>
     </row>
     <row r="8">
@@ -4055,31 +4055,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.981098901098901</v>
+        <v>0.5491269841269846</v>
       </c>
       <c r="C8" t="n">
         <v>-46.46794215043609</v>
       </c>
       <c r="D8" t="n">
+        <v>0.5219083082773684</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.981098901098901</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8749398006763178</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.8508413427336214</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.8749398006763178</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>-1.796307236446637</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.139861381048612</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5491269841269846</v>
-      </c>
-      <c r="H8" t="n">
-        <v>41.85847722209735</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.2652226031985177</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5219083082773684</v>
       </c>
     </row>
     <row r="9">
@@ -4089,31 +4089,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.975244565217391</v>
+        <v>0.5336111111111115</v>
       </c>
       <c r="C9" t="n">
         <v>-46.64747133609491</v>
       </c>
       <c r="D9" t="n">
+        <v>0.4791356051186754</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.975244565217391</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.8722289092771164</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.550879591774714</v>
       </c>
-      <c r="E9" t="n">
-        <v>-0.8722289092771164</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>-1.897452850412151</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.041430468178603</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.5336111111111115</v>
-      </c>
-      <c r="H9" t="n">
-        <v>37.54238951324953</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.9137733930902497</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4791356051186754</v>
       </c>
     </row>
     <row r="10">
@@ -4123,31 +4123,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.026114130434783</v>
+        <v>0.5526344086021506</v>
       </c>
       <c r="C10" t="n">
         <v>-46.06901411677114</v>
       </c>
       <c r="D10" t="n">
+        <v>0.6035331321396218</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.026114130434783</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.924379255555116</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.7656992750145573</v>
       </c>
-      <c r="E10" t="n">
-        <v>1.924379255555116</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>-1.604451143195206</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.4051131570968576</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.5526344086021506</v>
-      </c>
-      <c r="H10" t="n">
-        <v>33.50584478978681</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1.131977420649275</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6035331321396218</v>
       </c>
     </row>
     <row r="11">
@@ -4157,31 +4157,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.956722222222221</v>
+        <v>0.6149713114754092</v>
       </c>
       <c r="C11" t="n">
         <v>-45.81019799036694</v>
       </c>
       <c r="D11" t="n">
+        <v>0.5122067966619696</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.956722222222221</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08946328040320277</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.9517715097951182</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.08946328040320277</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>-1.664201235832593</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.040254505786429</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.6149713114754092</v>
-      </c>
-      <c r="H11" t="n">
-        <v>25.24345395157707</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.8327718915132062</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5122067966619696</v>
       </c>
     </row>
     <row r="12">
@@ -4191,31 +4191,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.729615384615386</v>
+        <v>0.6681640624999996</v>
       </c>
       <c r="C12" t="n">
         <v>-46.03618495681573</v>
       </c>
       <c r="D12" t="n">
+        <v>0.4814319518172924</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.729615384615386</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03529478943955385</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.3955179842928014</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.03529478943955385</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>-2.065067996144137</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.6300354506865591</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.6681640624999996</v>
-      </c>
-      <c r="H12" t="n">
-        <v>18.13860143939678</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.3604664869711737</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.4814319518172924</v>
       </c>
     </row>
     <row r="13">
@@ -4225,31 +4225,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.552364130434782</v>
+        <v>0.7192578125000004</v>
       </c>
       <c r="C13" t="n">
         <v>-45.9122386449132</v>
       </c>
       <c r="D13" t="n">
+        <v>0.6373919484586089</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.552364130434782</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.3394502329336466</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.9533995897742173</v>
       </c>
-      <c r="E13" t="n">
-        <v>-0.3394502329336466</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>-1.933955870123611</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.832494277022122</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.7192578125000004</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17.27686959809807</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.3346420717301988</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6373919484586089</v>
       </c>
     </row>
     <row r="14">
@@ -4259,31 +4259,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.566684782608696</v>
+        <v>0.707859122983872</v>
       </c>
       <c r="C14" t="n">
         <v>-45.73115809429887</v>
       </c>
       <c r="D14" t="n">
+        <v>0.7042528148574164</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.566684782608696</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6389507243223675</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.5025733719619636</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.6389507243223675</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>-1.622413427027311</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.6400036336649707</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.707859122983872</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.41848200054898</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.9439049497590892</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7042528148574164</v>
       </c>
     </row>
     <row r="15">
@@ -4293,31 +4293,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.555638888888889</v>
+        <v>0.6166314119513487</v>
       </c>
       <c r="C15" t="n">
         <v>-45.05284998432543</v>
       </c>
       <c r="D15" t="n">
+        <v>0.7669237584501565</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.555638888888889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-2.448766293781741</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.6557193823560804</v>
       </c>
-      <c r="E15" t="n">
-        <v>-2.448766293781741</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>-0.8362729718119795</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.3967354634090401</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.6166314119513487</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12.02921242446314</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>-0.6129512377825054</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7669237584501565</v>
       </c>
     </row>
     <row r="16">
@@ -4327,31 +4327,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.6625</v>
+        <v>0.5042460317460318</v>
       </c>
       <c r="C16" t="n">
         <v>-44.58457462802819</v>
       </c>
       <c r="D16" t="n">
+        <v>0.5363860526991826</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.6625</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.358704597563786</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.093760903872006</v>
       </c>
-      <c r="E16" t="n">
-        <v>1.358704597563786</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>-0.4115903265366114</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.678486872764189</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.5042460317460318</v>
-      </c>
-      <c r="H16" t="n">
-        <v>19.00197289145984</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.4206078914575486</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5363860526991826</v>
       </c>
     </row>
     <row r="17">
@@ -4361,31 +4361,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.709891304347826</v>
+        <v>0.5077343750000005</v>
       </c>
       <c r="C17" t="n">
         <v>-44.12652236639215</v>
       </c>
       <c r="D17" t="n">
+        <v>0.746139542606062</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.709891304347826</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.544036886062381</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.9034435385936462</v>
       </c>
-      <c r="E17" t="n">
-        <v>1.544036886062381</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>-0.09213006974772497</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.383608315235756</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.5077343750000005</v>
-      </c>
-      <c r="H17" t="n">
-        <v>24.09182624813462</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.2696876592827458</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.746139542606062</v>
       </c>
     </row>
     <row r="18">
@@ -4395,31 +4395,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.72991847826087</v>
+        <v>0.5633278729838715</v>
       </c>
       <c r="C18" t="n">
         <v>-43.88551135483149</v>
       </c>
       <c r="D18" t="n">
+        <v>0.675724087031281</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.72991847826087</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1278053788893364</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.731314523077191</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.1278053788893364</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>0.4289252785343933</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.4133193156822352</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.5633278729838715</v>
-      </c>
-      <c r="H18" t="n">
-        <v>28.41614963603053</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.557371050331582</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.675724087031281</v>
       </c>
     </row>
     <row r="19">
@@ -4429,31 +4429,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.666483516483517</v>
+        <v>0.5835675883256504</v>
       </c>
       <c r="C19" t="n">
         <v>-44.0445593990238</v>
       </c>
       <c r="D19" t="n">
+        <v>0.8295673516799764</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.666483516483517</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.07086764081422642</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.4876990468199718</v>
       </c>
-      <c r="E19" t="n">
-        <v>-0.07086764081422642</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
+        <v>0.05436893693541833</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.68271616941771</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.5835675883256504</v>
-      </c>
-      <c r="H19" t="n">
-        <v>22.65608239901371</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.7435998434387213</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.8295673516799764</v>
       </c>
     </row>
     <row r="20">
@@ -4463,31 +4463,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.788736263736262</v>
+        <v>0.5175000000000014</v>
       </c>
       <c r="C20" t="n">
         <v>-43.81051972180227</v>
       </c>
       <c r="D20" t="n">
+        <v>0.9769195537953163</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.788736263736262</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.565429479412046</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.263244014878953</v>
       </c>
-      <c r="E20" t="n">
-        <v>1.565429479412046</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
+        <v>0.5549275887312319</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.8375778563216048</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.5175000000000014</v>
-      </c>
-      <c r="H20" t="n">
-        <v>24.84337510472744</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.1473501260968532</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.9769195537953163</v>
       </c>
     </row>
     <row r="21">
@@ -4497,31 +4497,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.995869565217391</v>
+        <v>0.4937890624999994</v>
       </c>
       <c r="C21" t="n">
         <v>-43.62071872348125</v>
       </c>
       <c r="D21" t="n">
+        <v>1.164569455100254</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.995869565217391</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.3188984532778949</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.5325276437464489</v>
       </c>
-      <c r="E21" t="n">
-        <v>-0.3188984532778949</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
+        <v>0.6777853039521347</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.8552590290610033</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.4937890624999994</v>
-      </c>
-      <c r="H21" t="n">
-        <v>25.71269945110214</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-0.03367691419229579</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.164569455100254</v>
       </c>
     </row>
     <row r="22">
@@ -4531,31 +4531,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.117119565217391</v>
+        <v>0.3882377049180321</v>
       </c>
       <c r="C22" t="n">
         <v>-43.12924079546048</v>
       </c>
       <c r="D22" t="n">
+        <v>0.7949624773859965</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.117119565217391</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.167086974702332</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.311012310448914</v>
       </c>
-      <c r="E22" t="n">
-        <v>1.167086974702332</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
+        <v>1.441931963661602</v>
+      </c>
+      <c r="I22" t="n">
         <v>1.342160426055427</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.3882377049180321</v>
-      </c>
-      <c r="H22" t="n">
-        <v>20.44253203294096</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>-0.1885353706679958</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7949624773859965</v>
       </c>
     </row>
     <row r="23">
@@ -4565,31 +4565,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.36161111111111</v>
+        <v>0.3583804865150717</v>
       </c>
       <c r="C23" t="n">
         <v>-42.74262386585544</v>
       </c>
       <c r="D23" t="n">
+        <v>1.039044418623087</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.36161111111111</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4554994901184618</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.009691363157309</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.4554994901184618</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
+        <v>2.088629928426769</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.5146523955785554</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.3583804865150717</v>
-      </c>
-      <c r="H23" t="n">
-        <v>21.72035854159299</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>-0.7141146922364958</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.039044418623087</v>
       </c>
     </row>
     <row r="24">
@@ -4599,31 +4599,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.431428571428573</v>
+        <v>0.4010937499999998</v>
       </c>
       <c r="C24" t="n">
         <v>-42.93467349268331</v>
       </c>
       <c r="D24" t="n">
+        <v>0.9671081597911113</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.431428571428573</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.2281298267075077</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.6541056055695145</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.2281298267075077</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
+        <v>2.28689827475722</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.8000015615407166</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.4010937499999998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>19.02765773805635</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>-0.7057968438876389</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.9671081597911113</v>
       </c>
     </row>
     <row r="25">
@@ -4633,31 +4633,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.270896739130434</v>
+        <v>0.4448015873015883</v>
       </c>
       <c r="C25" t="n">
         <v>-42.91605852924081</v>
       </c>
       <c r="D25" t="n">
+        <v>0.7262122151505735</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.270896739130434</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.423650320612265</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.7097607174955247</v>
       </c>
-      <c r="E25" t="n">
-        <v>1.423650320612265</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
+        <v>2.467811729091807</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.8570173205904901</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.4448015873015883</v>
-      </c>
-      <c r="H25" t="n">
-        <v>14.3285183482227</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.08528008334099503</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.7262122151505735</v>
       </c>
     </row>
     <row r="26">
@@ -4667,31 +4667,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.153614130434783</v>
+        <v>0.4765988223246289</v>
       </c>
       <c r="C26" t="n">
         <v>-42.99655323487583</v>
       </c>
       <c r="D26" t="n">
+        <v>0.6567919231215915</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.153614130434783</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.802333380525778</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.253489170199633</v>
       </c>
-      <c r="E26" t="n">
-        <v>-1.802333380525778</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>2.102061701079379</v>
+      </c>
+      <c r="I26" t="n">
         <v>0.6266159592973694</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.4765988223246289</v>
-      </c>
-      <c r="H26" t="n">
-        <v>13.5856315450543</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0.6407714198461927</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6567919231215915</v>
       </c>
     </row>
     <row r="27">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.061999999999999</v>
+        <v>0.4179211469534052</v>
       </c>
       <c r="C27" t="n">
         <v>-42.85893126927225</v>
       </c>
       <c r="D27" t="n">
+        <v>1.196345186769259</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.061999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6094940649773659</v>
+      </c>
+      <c r="G27" t="n">
         <v>1.148283846719832</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.6094940649773659</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
+        <v>2.116124806210451</v>
+      </c>
+      <c r="I27" t="n">
         <v>1.08140860928317</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.4179211469534052</v>
-      </c>
-      <c r="H27" t="n">
-        <v>16.41934184355881</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0.6923077894278937</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.196345186769259</v>
       </c>
     </row>
     <row r="28">
@@ -4735,31 +4735,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.059835164835165</v>
+        <v>0.4096825396825405</v>
       </c>
       <c r="C28" t="n">
         <v>-43.2661157373723</v>
       </c>
       <c r="D28" t="n">
+        <v>1.158841772128329</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.059835164835165</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-3.176520575850909</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.2555750422211635</v>
       </c>
-      <c r="E28" t="n">
-        <v>-3.176520575850909</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
+        <v>1.268939672506065</v>
+      </c>
+      <c r="I28" t="n">
         <v>0.2478046019928586</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.4096825396825405</v>
-      </c>
-      <c r="H28" t="n">
-        <v>18.54895185363068</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>0.9561899198492235</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.158841772128329</v>
       </c>
     </row>
     <row r="29">
@@ -4769,31 +4769,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.040054347826086</v>
+        <v>0.4265476190476178</v>
       </c>
       <c r="C29" t="n">
         <v>-44.0268914865707</v>
       </c>
       <c r="D29" t="n">
+        <v>0.8899611313330804</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.040054347826086</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.350492145430522</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.007012081819836528</v>
       </c>
-      <c r="E29" t="n">
-        <v>-1.350492145430522</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
+        <v>0.3797132291662706</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.7664631849295043</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.4265476190476178</v>
-      </c>
-      <c r="H29" t="n">
-        <v>19.46210226411313</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.6269900166253765</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.8899611313330804</v>
       </c>
     </row>
     <row r="30">
@@ -4803,31 +4803,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.935842391304347</v>
+        <v>0.5499143145161289</v>
       </c>
       <c r="C30" t="n">
         <v>-44.78884269231778</v>
       </c>
       <c r="D30" t="n">
+        <v>0.7721202361219905</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.935842391304347</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.046577870334768</v>
+      </c>
+      <c r="G30" t="n">
         <v>-0.7587471382947779</v>
       </c>
-      <c r="E30" t="n">
-        <v>-3.046577870334768</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
+        <v>-0.2599563041979991</v>
+      </c>
+      <c r="I30" t="n">
         <v>-0.2040902302660949</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.5499143145161289</v>
-      </c>
-      <c r="H30" t="n">
-        <v>21.34826561855039</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>0.08200849935616793</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.7721202361219905</v>
       </c>
     </row>
     <row r="31">
@@ -4837,31 +4837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.60761111111111</v>
+        <v>0.5476099726775963</v>
       </c>
       <c r="C31" t="n">
         <v>-45.78530954474181</v>
       </c>
       <c r="D31" t="n">
+        <v>1.169828971545036</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.60761111111111</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.931926860693991</v>
+      </c>
+      <c r="G31" t="n">
         <v>-0.5114158635156758</v>
       </c>
-      <c r="E31" t="n">
-        <v>-3.931926860693991</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
+        <v>-1.300745421655506</v>
+      </c>
+      <c r="I31" t="n">
         <v>-0.849967902252813</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.5476099726775963</v>
-      </c>
-      <c r="H31" t="n">
-        <v>17.58189429884192</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>-0.3433735223151068</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.169828971545036</v>
       </c>
     </row>
     <row r="32">
@@ -4871,31 +4871,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.466016483516483</v>
+        <v>0.4489843750000007</v>
       </c>
       <c r="C32" t="n">
         <v>-46.1298265157611</v>
       </c>
       <c r="D32" t="n">
+        <v>0.6338787786225726</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.466016483516483</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.7958221338528745</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.6469765547358113</v>
       </c>
-      <c r="E32" t="n">
-        <v>-0.7958221338528745</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
+        <v>-1.702200274325435</v>
+      </c>
+      <c r="I32" t="n">
         <v>0.7891904519748107</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.4489843750000007</v>
-      </c>
-      <c r="H32" t="n">
-        <v>14.67928057630451</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>1.202893412487421</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6338787786225726</v>
       </c>
     </row>
     <row r="33">
@@ -4905,31 +4905,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.411304347826086</v>
+        <v>0.4350390625000009</v>
       </c>
       <c r="C33" t="n">
         <v>-46.23698830071212</v>
       </c>
       <c r="D33" t="n">
+        <v>0.6841639792446621</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.411304347826086</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.3978270266828355</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.481446957323881</v>
       </c>
-      <c r="E33" t="n">
-        <v>-0.3978270266828355</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
+        <v>-1.865991903808094</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.4520079229453731</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.4350390625000009</v>
-      </c>
-      <c r="H33" t="n">
-        <v>12.32086860842224</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>0.3906350604859103</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6841639792446621</v>
       </c>
     </row>
     <row r="34">
@@ -4939,31 +4939,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.204619565217391</v>
+        <v>0.5142968749999994</v>
       </c>
       <c r="C34" t="n">
         <v>-46.39999976984442</v>
       </c>
       <c r="D34" t="n">
+        <v>0.503613424094233</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.204619565217391</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.652904320197457</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.4679583735087706</v>
       </c>
-      <c r="E34" t="n">
-        <v>-0.652904320197457</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
+        <v>-2.114880949094129</v>
+      </c>
+      <c r="I34" t="n">
         <v>0.201951698703192</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.5142968749999994</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9.304051040904994</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>0.5721631092897534</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.503613424094233</v>
       </c>
     </row>
     <row r="35">
@@ -4973,31 +4973,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.006071428571428</v>
+        <v>0.473266129032258</v>
       </c>
       <c r="C35" t="n">
         <v>-46.48132435855418</v>
       </c>
       <c r="D35" t="n">
+        <v>0.6621223726514291</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.006071428571428</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.180927500250527</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.030442358557571</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.180927500250527</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
+        <v>-2.052195012918901</v>
+      </c>
+      <c r="I35" t="n">
         <v>1.742726438580211</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.473266129032258</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7.130161949554463</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>1.228339555379489</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6621223726514291</v>
       </c>
     </row>
     <row r="36">
@@ -5007,31 +5007,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9435164835164841</v>
+        <v>0.4378968253968256</v>
       </c>
       <c r="C36" t="n">
         <v>-46.0338011243147</v>
       </c>
       <c r="D36" t="n">
+        <v>0.5186721555782836</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9435164835164841</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.379654650556005</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.9596593017437606</v>
       </c>
-      <c r="E36" t="n">
-        <v>3.379654650556005</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
+        <v>-1.63189596355619</v>
+      </c>
+      <c r="I36" t="n">
         <v>0.6930179401879156</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.4378968253968256</v>
-      </c>
-      <c r="H36" t="n">
-        <v>6.340301264421214</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>0.2624515558078852</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5186721555782836</v>
       </c>
     </row>
     <row r="37">
@@ -5041,31 +5041,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8148097826086955</v>
+        <v>0.5213671874999992</v>
       </c>
       <c r="C37" t="n">
         <v>-45.91286237049047</v>
       </c>
       <c r="D37" t="n">
+        <v>0.4340309708925761</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8148097826086955</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.226295659539301</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.9763225758513078</v>
       </c>
-      <c r="E37" t="n">
-        <v>1.226295659539301</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
+        <v>-1.65062797490441</v>
+      </c>
+      <c r="I37" t="n">
         <v>1.252894678755183</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.5213671874999992</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.590595736149226</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>1.054626980296685</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4340309708925761</v>
       </c>
     </row>
     <row r="38">
@@ -5075,31 +5075,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.758722826086957</v>
+        <v>0.5317552923387101</v>
       </c>
       <c r="C38" t="n">
         <v>-46.24825914534391</v>
       </c>
       <c r="D38" t="n">
+        <v>0.5241071958327062</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.758722826086957</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.806471662652998</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.095812641439714</v>
       </c>
-      <c r="E38" t="n">
-        <v>2.806471662652998</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
+        <v>-1.68635002397275</v>
+      </c>
+      <c r="I38" t="n">
         <v>1.259302584954644</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.5317552923387101</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.447342242655964</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>-0.1371025309882777</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5241071958327062</v>
       </c>
     </row>
     <row r="39">
@@ -5109,31 +5109,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.7605833333333336</v>
+        <v>0.5328701745108417</v>
       </c>
       <c r="C39" t="n">
         <v>-46.01434944102772</v>
       </c>
       <c r="D39" t="n">
+        <v>0.7861756681138125</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7605833333333336</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3482218508723782</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.1207211220761134</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.3482218508723782</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
+        <v>-1.484164411793301</v>
+      </c>
+      <c r="I39" t="n">
         <v>0.09069769021235856</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.5328701745108417</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-2.089979304894541</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>-0.6124616996794719</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7861756681138125</v>
       </c>
     </row>
     <row r="40">
@@ -5143,31 +5143,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.7493131868131868</v>
+        <v>0.5377380952380946</v>
       </c>
       <c r="C40" t="n">
         <v>-45.4002235330046</v>
       </c>
       <c r="D40" t="n">
+        <v>0.5399795992363209</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7493131868131868</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.974489001589338</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.50544327111931</v>
       </c>
-      <c r="E40" t="n">
-        <v>1.974489001589338</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
+        <v>-0.7899452596450374</v>
+      </c>
+      <c r="I40" t="n">
         <v>0.9865946248610419</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.5377380952380946</v>
-      </c>
-      <c r="H40" t="n">
-        <v>-5.122869150704901</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>-0.176749109855844</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5399795992363209</v>
       </c>
     </row>
     <row r="41">
@@ -5177,31 +5177,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.7644293478260871</v>
+        <v>0.5019140624999994</v>
       </c>
       <c r="C41" t="n">
         <v>-45.01269242754983</v>
       </c>
       <c r="D41" t="n">
+        <v>0.4468257407303039</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7644293478260871</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.558632306108256</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.5121905633034778</v>
       </c>
-      <c r="E41" t="n">
-        <v>1.558632306108256</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
+        <v>-0.5121504279489955</v>
+      </c>
+      <c r="I41" t="n">
         <v>0.9821846663228573</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.5019140624999994</v>
-      </c>
-      <c r="H41" t="n">
-        <v>-11.6735970997633</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>-0.02716379543587344</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.4468257407303039</v>
       </c>
     </row>
     <row r="42">
@@ -5211,31 +5211,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.7470652173913048</v>
+        <v>0.484679939516129</v>
       </c>
       <c r="C42" t="n">
         <v>-44.76344911547955</v>
       </c>
       <c r="D42" t="n">
+        <v>0.4852820719955324</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7470652173913048</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.002583620101161</v>
+      </c>
+      <c r="G42" t="n">
         <v>1.336569384824478</v>
       </c>
-      <c r="E42" t="n">
-        <v>4.002583620101161</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
+        <v>-0.3012698645304113</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.927238157116457</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.484679939516129</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-12.57336330257723</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>-0.1209793860945706</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.4852820719955324</v>
       </c>
     </row>
     <row r="43">
@@ -5245,31 +5245,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8023333333333335</v>
+        <v>0.4421812596006143</v>
       </c>
       <c r="C43" t="n">
         <v>-44.4048870401533</v>
       </c>
       <c r="D43" t="n">
+        <v>0.6359606717606738</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8023333333333335</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.19449949681857</v>
+      </c>
+      <c r="G43" t="n">
         <v>1.012221637161417</v>
       </c>
-      <c r="E43" t="n">
-        <v>1.19449949681857</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
+        <v>-0.1703546642193032</v>
+      </c>
+      <c r="I43" t="n">
         <v>0.8617369320331981</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.4421812596006143</v>
-      </c>
-      <c r="H43" t="n">
-        <v>-8.623643351987681</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>0.4924393736602579</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6359606717606738</v>
       </c>
     </row>
     <row r="44">
@@ -5279,31 +5279,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9845054945054948</v>
+        <v>0.377943548387097</v>
       </c>
       <c r="C44" t="n">
         <v>-43.74785610700907</v>
       </c>
       <c r="D44" t="n">
+        <v>0.4254425109839632</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9845054945054948</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.273549848980956</v>
+      </c>
+      <c r="G44" t="n">
         <v>1.295508370541835</v>
       </c>
-      <c r="E44" t="n">
-        <v>2.273549848980956</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
+        <v>0.7971982987293131</v>
+      </c>
+      <c r="I44" t="n">
         <v>0.8356208409712055</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.377943548387097</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.4010364954888246</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>-0.6396724750905918</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.4254425109839632</v>
       </c>
     </row>
     <row r="45">
@@ -5313,31 +5313,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.121358695652174</v>
+        <v>0.3774609374999998</v>
       </c>
       <c r="C45" t="n">
         <v>-43.48818327751007</v>
       </c>
       <c r="D45" t="n">
+        <v>0.6038632238678728</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.121358695652174</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.781348056947293</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.5588459986816212</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.781348056947293</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
+        <v>1.087985307794156</v>
+      </c>
+      <c r="I45" t="n">
         <v>0.9943820373327306</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.3774609374999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3.113752671699274</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>-0.6618420825354925</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6038632238678728</v>
       </c>
     </row>
     <row r="46">
@@ -5347,31 +5347,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.291983695652174</v>
+        <v>0.3426411657559199</v>
       </c>
       <c r="C46" t="n">
         <v>-42.79453820517479</v>
       </c>
       <c r="D46" t="n">
+        <v>0.4771805861947565</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.291983695652174</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.452077621394875</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.165017509207356</v>
       </c>
-      <c r="E46" t="n">
-        <v>2.452077621394875</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
+        <v>1.816622264313423</v>
+      </c>
+      <c r="I46" t="n">
         <v>0.9619323202289981</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.3426411657559199</v>
-      </c>
-      <c r="H46" t="n">
-        <v>7.214667296528205</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>0.08668448171009542</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.4771805861947565</v>
       </c>
     </row>
     <row r="47">
@@ -5381,31 +5381,31 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.450694444444444</v>
+        <v>0.3502726574500761</v>
       </c>
       <c r="C47" t="n">
         <v>-42.81013661198563</v>
       </c>
       <c r="D47" t="n">
+        <v>0.6531100624001077</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.450694444444444</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.020106542859495</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.2775459700813222</v>
       </c>
-      <c r="E47" t="n">
-        <v>2.020106542859495</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
+        <v>1.795024317283662</v>
+      </c>
+      <c r="I47" t="n">
         <v>-0.01159015199970428</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.3502726574500761</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3.504132329321237</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>0.11955294510689</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6531100624001077</v>
       </c>
     </row>
     <row r="48">
@@ -5415,31 +5415,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.50478021978022</v>
+        <v>0.4041666666666666</v>
       </c>
       <c r="C48" t="n">
         <v>-43.6800017184728</v>
       </c>
       <c r="D48" t="n">
+        <v>0.367412989291946</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.50478021978022</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.4129026866601077</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.179178957452611</v>
       </c>
-      <c r="E48" t="n">
-        <v>-0.4129026866601077</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
+        <v>1.05039449531813</v>
+      </c>
+      <c r="I48" t="n">
         <v>1.009261295744105</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.4041666666666666</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-4.171793485339549</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>0.2013161345749452</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.367412989291946</v>
       </c>
     </row>
     <row r="49">
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.44929347826087</v>
+        <v>0.4331746031746033</v>
       </c>
       <c r="C49" t="n">
         <v>-43.59641182360189</v>
       </c>
       <c r="D49" t="n">
+        <v>0.42351778005732</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.44929347826087</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.03095476407675</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.811669491526184</v>
       </c>
-      <c r="E49" t="n">
-        <v>1.03095476407675</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
+        <v>1.464862884058903</v>
+      </c>
+      <c r="I49" t="n">
         <v>0.8692934560012527</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.4331746031746033</v>
-      </c>
-      <c r="H49" t="n">
-        <v>-6.075201314378319</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>0.1910193290128673</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.42351778005732</v>
       </c>
     </row>
     <row r="50">
@@ -5483,31 +5483,31 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.429864130434783</v>
+        <v>0.4369502048131082</v>
       </c>
       <c r="C50" t="n">
         <v>-43.73724290776242</v>
       </c>
       <c r="D50" t="n">
+        <v>0.4896910036854814</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.429864130434783</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.569675223794947</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.7287336379996764</v>
       </c>
-      <c r="E50" t="n">
-        <v>1.569675223794947</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
+        <v>1.240099547490388</v>
+      </c>
+      <c r="I50" t="n">
         <v>0.607821691445684</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.4369502048131082</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-11.3673558558703</v>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>0.4073443056279821</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4896910036854814</v>
       </c>
     </row>
     <row r="51">
@@ -5517,31 +5517,31 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.342747252747253</v>
+        <v>0.4491250640040965</v>
       </c>
       <c r="C51" t="n">
         <v>-44.08398483222177</v>
       </c>
       <c r="D51" t="n">
+        <v>0.6106363982768497</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.342747252747253</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.562039662746291</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.7026538012038402</v>
       </c>
-      <c r="E51" t="n">
-        <v>1.562039662746291</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
+        <v>0.4363853680214902</v>
+      </c>
+      <c r="I51" t="n">
         <v>0.8860905765891569</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.4491250640040965</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-10.57749173240217</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>0.3894648829464068</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6106363982768497</v>
       </c>
     </row>
     <row r="52">
@@ -5551,31 +5551,31 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.310989010989011</v>
+        <v>0.3951562499999997</v>
       </c>
       <c r="C52" t="n">
         <v>-43.26239382413095</v>
       </c>
       <c r="D52" t="n">
+        <v>0.334908320334637</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.310989010989011</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.562862850865045</v>
+      </c>
+      <c r="G52" t="n">
         <v>1.625795418607739</v>
       </c>
-      <c r="E52" t="n">
-        <v>2.562862850865045</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
+        <v>0.9614344367316221</v>
+      </c>
+      <c r="I52" t="n">
         <v>1.385333429809877</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.3951562499999997</v>
-      </c>
-      <c r="H52" t="n">
-        <v>-3.22866149238655</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>0.6140741198165393</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.334908320334637</v>
       </c>
     </row>
     <row r="53">
@@ -5585,31 +5585,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.326548913043478</v>
+        <v>0.3783984374999994</v>
       </c>
       <c r="C53" t="n">
         <v>-42.61227256564514</v>
       </c>
       <c r="D53" t="n">
+        <v>0.4784774605783084</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.326548913043478</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.110076929637274</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.8347474081652163</v>
       </c>
-      <c r="E53" t="n">
-        <v>2.110076929637274</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
+        <v>1.555646692878895</v>
+      </c>
+      <c r="I53" t="n">
         <v>0.5565401612203851</v>
       </c>
-      <c r="G53" t="n">
-        <v>0.3783984374999994</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-3.29084410398707</v>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>0.263547839650391</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4784774605783084</v>
       </c>
     </row>
     <row r="54">
@@ -5619,31 +5619,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.320217391304347</v>
+        <v>0.3922177419354842</v>
       </c>
       <c r="C54" t="n">
         <v>-42.32968572216601</v>
       </c>
       <c r="D54" t="n">
+        <v>0.4148128948916596</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.320217391304347</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.183671128531956</v>
+      </c>
+      <c r="G54" t="n">
         <v>1.162493127911353</v>
       </c>
-      <c r="E54" t="n">
-        <v>1.183671128531956</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
+        <v>2.015292280847746</v>
+      </c>
+      <c r="I54" t="n">
         <v>1.08094683633713</v>
       </c>
-      <c r="G54" t="n">
-        <v>0.3922177419354842</v>
-      </c>
-      <c r="H54" t="n">
-        <v>-7.812379971803864</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>0.0007919174444820637</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.4148128948916596</v>
       </c>
     </row>
     <row r="55">
@@ -5653,31 +5653,31 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.31961111111111</v>
+        <v>0.3772663934426224</v>
       </c>
       <c r="C55" t="n">
         <v>-42.18621559686777</v>
       </c>
       <c r="D55" t="n">
+        <v>0.5363811442940328</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.31961111111111</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.241725711886991</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.7702884612156978</v>
       </c>
-      <c r="E55" t="n">
-        <v>1.241725711886991</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
+        <v>2.421866589905733</v>
+      </c>
+      <c r="I55" t="n">
         <v>0.9930201816858466</v>
       </c>
-      <c r="G55" t="n">
-        <v>0.3772663934426224</v>
-      </c>
-      <c r="H55" t="n">
-        <v>-5.899704455657059</v>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>0.07030507817540305</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5363811442940328</v>
       </c>
     </row>
     <row r="56">
@@ -5687,31 +5687,31 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.38054945054945</v>
+        <v>0.3723437500000006</v>
       </c>
       <c r="C56" t="n">
         <v>-41.45853213574286</v>
       </c>
       <c r="D56" t="n">
+        <v>0.3448025533893311</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.38054945054945</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.664767369811909</v>
+      </c>
+      <c r="G56" t="n">
         <v>1.508001533317316</v>
       </c>
-      <c r="E56" t="n">
-        <v>1.664767369811909</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
+        <v>2.854685871133881</v>
+      </c>
+      <c r="I56" t="n">
         <v>0.3106816031763789</v>
       </c>
-      <c r="G56" t="n">
-        <v>0.3723437500000006</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-4.51024421110003</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>0.4352116222258141</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.3448025533893311</v>
       </c>
     </row>
     <row r="57">
@@ -5721,31 +5721,31 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.383668478260869</v>
+        <v>0.3791406249999991</v>
       </c>
       <c r="C57" t="n">
         <v>-41.15263340689607</v>
       </c>
       <c r="D57" t="n">
+        <v>0.2620107141569789</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.383668478260869</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.536009884732796</v>
+      </c>
+      <c r="G57" t="n">
         <v>1.237436587572172</v>
       </c>
-      <c r="E57" t="n">
-        <v>3.536009884732796</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
+        <v>3.154627145370171</v>
+      </c>
+      <c r="I57" t="n">
         <v>1.636719543908929</v>
       </c>
-      <c r="G57" t="n">
-        <v>0.3791406249999991</v>
-      </c>
-      <c r="H57" t="n">
-        <v>-9.908062581372462</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>0.7191211831164686</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.2620107141569789</v>
       </c>
     </row>
     <row r="58">
@@ -5755,31 +5755,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.376847826086956</v>
+        <v>0.3834677419354837</v>
       </c>
       <c r="C58" t="n">
         <v>-41.00696974491127</v>
       </c>
       <c r="D58" t="n">
+        <v>0.3375045652996451</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.376847826086956</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.3579188188123306</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.7347254564020709</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.3579188188123306</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
+        <v>3.179577807289377</v>
+      </c>
+      <c r="I58" t="n">
         <v>1.024728732546</v>
       </c>
-      <c r="G58" t="n">
-        <v>0.3834677419354837</v>
-      </c>
-      <c r="H58" t="n">
-        <v>-14.10093371426328</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>1.378383905522504</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.3375045652996451</v>
       </c>
     </row>
     <row r="59">
@@ -5789,31 +5789,31 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.379833333333333</v>
+        <v>0.4170901639344258</v>
       </c>
       <c r="C59" t="n">
         <v>-41.01881033015228</v>
       </c>
       <c r="D59" t="n">
+        <v>0.2417171420704392</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.379833333333333</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.20524444525494</v>
+      </c>
+      <c r="G59" t="n">
         <v>1.100457810235203</v>
       </c>
-      <c r="E59" t="n">
-        <v>2.20524444525494</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
+        <v>3.20571911780155</v>
+      </c>
+      <c r="I59" t="n">
         <v>0.9325859597436589</v>
       </c>
-      <c r="G59" t="n">
-        <v>0.4170901639344258</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-16.56123617999452</v>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>1.627979111179489</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.2417171420704392</v>
       </c>
     </row>
     <row r="60">
@@ -5823,31 +5823,31 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.374368131868132</v>
+        <v>0.4146031746031751</v>
       </c>
       <c r="C60" t="n">
         <v>-41.19366709537088</v>
       </c>
       <c r="D60" t="n">
+        <v>0.1954465743275343</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.374368131868132</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.480654492716167</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.6591775813347811</v>
       </c>
-      <c r="E60" t="n">
-        <v>2.480654492716167</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="H60" t="n">
+        <v>3.084661826040133</v>
+      </c>
+      <c r="I60" t="n">
         <v>1.547977782312809</v>
       </c>
-      <c r="G60" t="n">
-        <v>0.4146031746031751</v>
-      </c>
-      <c r="H60" t="n">
-        <v>-16.67033707685758</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>1.16971895877371</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.1954465743275343</v>
       </c>
     </row>
     <row r="61">
@@ -5857,31 +5857,31 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.382907608695652</v>
+        <v>0.4799609374999994</v>
       </c>
       <c r="C61" t="n">
         <v>-41.24005454023354</v>
       </c>
       <c r="D61" t="n">
+        <v>0.3483601582065484</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.382907608695652</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.001319436670689</v>
+      </c>
+      <c r="G61" t="n">
         <v>1.145130838697444</v>
       </c>
-      <c r="E61" t="n">
-        <v>1.001319436670689</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
+        <v>2.767553580961419</v>
+      </c>
+      <c r="I61" t="n">
         <v>1.181927591703757</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.4799609374999994</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-18.39851679811181</v>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>1.289460685542643</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.3483601582065484</v>
       </c>
     </row>
     <row r="62">
@@ -5891,31 +5891,31 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.215135869565217</v>
+        <v>0.6459274193548394</v>
       </c>
       <c r="C62" t="n">
         <v>-40.89245407751555</v>
       </c>
       <c r="D62" t="n">
+        <v>0.2904079634650693</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.215135869565217</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.543762250441393</v>
+      </c>
+      <c r="G62" t="n">
         <v>1.507445648218254</v>
       </c>
-      <c r="E62" t="n">
-        <v>2.543762250441393</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="H62" t="n">
+        <v>3.907063277052316</v>
+      </c>
+      <c r="I62" t="n">
         <v>1.416698846435584</v>
       </c>
-      <c r="G62" t="n">
-        <v>0.6459274193548394</v>
-      </c>
-      <c r="H62" t="n">
-        <v>-16.75012435740379</v>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>0.2216216966693823</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.2904079634650693</v>
       </c>
     </row>
     <row r="63">
@@ -5925,31 +5925,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.183638888888889</v>
+        <v>0.6028278688524591</v>
       </c>
       <c r="C63" t="n">
         <v>-41.16674026543842</v>
       </c>
       <c r="D63" t="n">
+        <v>0.3841899923223367</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.183638888888889</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.340622187348737</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.8451695900633491</v>
       </c>
-      <c r="E63" t="n">
-        <v>1.340622187348737</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
+        <v>3.86467902385084</v>
+      </c>
+      <c r="I63" t="n">
         <v>0.861442270180098</v>
       </c>
-      <c r="G63" t="n">
-        <v>0.6028278688524591</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-14.47838623450875</v>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>1.449840218383615</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.3841899923223367</v>
       </c>
     </row>
     <row r="64">
@@ -5959,31 +5959,31 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.186923076923077</v>
+        <v>0.5494921874999998</v>
       </c>
       <c r="C64" t="n">
         <v>-41.13414389507405</v>
       </c>
       <c r="D64" t="n">
+        <v>0.4380055726755398</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.186923076923077</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.981967068296073</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.8242465723692589</v>
       </c>
-      <c r="E64" t="n">
-        <v>1.981967068296073</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="H64" t="n">
+        <v>3.844037396486044</v>
+      </c>
+      <c r="I64" t="n">
         <v>1.758923138855068</v>
       </c>
-      <c r="G64" t="n">
-        <v>0.5494921874999998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-10.16011187447708</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>-0.03765634714971744</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.4380055726755398</v>
       </c>
     </row>
     <row r="65">
@@ -5993,31 +5993,31 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.273885869565218</v>
+        <v>0.5548437500000007</v>
       </c>
       <c r="C65" t="n">
         <v>-41.16186503886428</v>
       </c>
       <c r="D65" t="n">
+        <v>0.3280148861536713</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.273885869565218</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.428713672824215</v>
+      </c>
+      <c r="G65" t="n">
         <v>1.160120554163434</v>
       </c>
-      <c r="E65" t="n">
-        <v>1.428713672824215</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
+        <v>3.937627790712213</v>
+      </c>
+      <c r="I65" t="n">
         <v>1.262017366448595</v>
       </c>
-      <c r="G65" t="n">
-        <v>0.5548437500000007</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-5.574849288337816</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>0.5350136180958796</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.3280148861536713</v>
       </c>
     </row>
     <row r="66">
@@ -6027,31 +6027,31 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.326005434782608</v>
+        <v>0.5225601638504864</v>
       </c>
       <c r="C66" t="n">
         <v>-40.9319127682781</v>
       </c>
       <c r="D66" t="n">
+        <v>0.4610765584543006</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.326005434782608</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1890346087097386</v>
+      </c>
+      <c r="G66" t="n">
         <v>1.76187061300961</v>
       </c>
-      <c r="E66" t="n">
-        <v>0.1890346087097386</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
+        <v>4.045297437365207</v>
+      </c>
+      <c r="I66" t="n">
         <v>1.361097862720601</v>
       </c>
-      <c r="G66" t="n">
-        <v>0.5225601638504864</v>
-      </c>
-      <c r="H66" t="n">
-        <v>-3.949886344388062</v>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>1.554162740819812</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.4610765584543006</v>
       </c>
     </row>
     <row r="67">
@@ -6061,31 +6061,31 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.419423076923077</v>
+        <v>0.465595238095238</v>
       </c>
       <c r="C67" t="n">
         <v>-40.69038606128207</v>
       </c>
       <c r="D67" t="n">
+        <v>0.8262295001074742</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.419423076923077</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.447679035279164</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.2530117476877062</v>
       </c>
-      <c r="E67" t="n">
-        <v>2.447679035279164</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
+        <v>4.105652035410913</v>
+      </c>
+      <c r="I67" t="n">
         <v>1.625746514815727</v>
       </c>
-      <c r="G67" t="n">
-        <v>0.465595238095238</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-2.794313671346742</v>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>2.643571474736089</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.8262295001074742</v>
       </c>
     </row>
     <row r="68">
@@ -6095,31 +6095,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.567994505494505</v>
+        <v>0.6048015873015873</v>
       </c>
       <c r="C68" t="n">
         <v>-40.85767752084306</v>
       </c>
       <c r="D68" t="n">
+        <v>0.490275857484693</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.567994505494505</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.094157905868215</v>
+      </c>
+      <c r="G68" t="n">
         <v>1.558606013396516</v>
       </c>
-      <c r="E68" t="n">
-        <v>2.094157905868215</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="H68" t="n">
+        <v>3.751624194784881</v>
+      </c>
+      <c r="I68" t="n">
         <v>0.6248534369149708</v>
       </c>
-      <c r="G68" t="n">
-        <v>0.6048015873015873</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.4340105468759816</v>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>-0.2252730410481293</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.490275857484693</v>
       </c>
     </row>
     <row r="69">
@@ -6129,31 +6129,31 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.629864130434783</v>
+        <v>0.6057936507936512</v>
       </c>
       <c r="C69" t="n">
         <v>-41.65137100735753</v>
       </c>
       <c r="D69" t="n">
+        <v>0.4609524162623116</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.629864130434783</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.1528953006048725</v>
+      </c>
+      <c r="G69" t="n">
         <v>-0.11481115843701</v>
       </c>
-      <c r="E69" t="n">
-        <v>-0.1528953006048725</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
+        <v>3.078573202312555</v>
+      </c>
+      <c r="I69" t="n">
         <v>0.961771941093969</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.6057936507936512</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-3.007940059142982</v>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>1.498950395177451</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.4609524162623116</v>
       </c>
     </row>
     <row r="70">
@@ -6163,31 +6163,31 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.618722826086957</v>
+        <v>0.6617338709677425</v>
       </c>
       <c r="C70" t="n">
         <v>-41.67574604700073</v>
       </c>
       <c r="D70" t="n">
+        <v>0.4439408469634368</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.618722826086957</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.03663235316105271</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.5181437549082167</v>
       </c>
-      <c r="E70" t="n">
-        <v>-0.03663235316105271</v>
-      </c>
-      <c r="F70" t="n">
+      <c r="H70" t="n">
+        <v>2.928734668272455</v>
+      </c>
+      <c r="I70" t="n">
         <v>0.8405346775293431</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.6617338709677425</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-4.162602421975294</v>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>0.1252227237608183</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.4439408469634368</v>
       </c>
     </row>
     <row r="71">
@@ -6197,31 +6197,31 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.399249999999999</v>
+        <v>0.709395161290322</v>
       </c>
       <c r="C71" t="n">
         <v>-41.84542765467202</v>
       </c>
       <c r="D71" t="n">
+        <v>0.8111066555922558</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.399249999999999</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1.538339588391239</v>
+      </c>
+      <c r="G71" t="n">
         <v>-0.1224492014175331</v>
       </c>
-      <c r="E71" t="n">
-        <v>-1.538339588391239</v>
-      </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
+        <v>2.44471763204092</v>
+      </c>
+      <c r="I71" t="n">
         <v>0.4067742876503316</v>
       </c>
-      <c r="G71" t="n">
-        <v>0.709395161290322</v>
-      </c>
-      <c r="H71" t="n">
-        <v>-8.33488345669187</v>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>0.8302048569634537</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.8111066555922558</v>
       </c>
     </row>
     <row r="72">
@@ -6231,31 +6231,31 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.081675824175824</v>
+        <v>0.6905555555555554</v>
       </c>
       <c r="C72" t="n">
         <v>-42.89821316791675</v>
       </c>
       <c r="D72" t="n">
+        <v>0.7684154847844504</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.081675824175824</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-2.594868245490738</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.3063470788034233</v>
       </c>
-      <c r="E72" t="n">
-        <v>-2.594868245490738</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="H72" t="n">
+        <v>1.325926795344742</v>
+      </c>
+      <c r="I72" t="n">
         <v>0.1146988349817378</v>
       </c>
-      <c r="G72" t="n">
-        <v>0.6905555555555554</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-6.367022643012774</v>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>-0.1828974110579861</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.7684154847844504</v>
       </c>
     </row>
     <row r="73">
@@ -6265,31 +6265,31 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.8753804347826085</v>
+        <v>0.7361475409836067</v>
       </c>
       <c r="C73" t="n">
         <v>-43.78100680009076</v>
       </c>
       <c r="D73" t="n">
+        <v>0.3902824741287567</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8753804347826085</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.9903751978240094</v>
+      </c>
+      <c r="G73" t="n">
         <v>-0.3519243152824128</v>
       </c>
-      <c r="E73" t="n">
-        <v>-0.9903751978240094</v>
-      </c>
-      <c r="F73" t="n">
+      <c r="H73" t="n">
+        <v>0.3458905120903637</v>
+      </c>
+      <c r="I73" t="n">
         <v>0.1913237878704981</v>
       </c>
-      <c r="G73" t="n">
-        <v>0.7361475409836067</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-7.594729684659512</v>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>0.1532205057472692</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.3902824741287567</v>
       </c>
     </row>
     <row r="74">
@@ -6299,31 +6299,31 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5326086956521739</v>
+        <v>0.7895167900581712</v>
       </c>
       <c r="C74" t="n">
         <v>-44.75795199166143</v>
       </c>
       <c r="D74" t="n">
+        <v>0.4198012112401862</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5326086956521739</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3.206321040058473</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.3933052271613229</v>
       </c>
-      <c r="E74" t="n">
-        <v>-3.206321040058473</v>
-      </c>
-      <c r="F74" t="n">
+      <c r="H74" t="n">
+        <v>-0.5624834581728919</v>
+      </c>
+      <c r="I74" t="n">
         <v>1.403812455976376</v>
       </c>
-      <c r="G74" t="n">
-        <v>0.7895167900581712</v>
-      </c>
-      <c r="H74" t="n">
-        <v>-7.848996015614148</v>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>0.3076405365812666</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.4198012112401862</v>
       </c>
     </row>
     <row r="75">
@@ -6333,31 +6333,31 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4332222222222226</v>
+        <v>0.718958333333334</v>
       </c>
       <c r="C75" t="n">
         <v>-45.00300581977415</v>
       </c>
       <c r="D75" t="n">
+        <v>0.4170805610668576</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.4332222222222226</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-2.132128903562652</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.676816429647115</v>
       </c>
-      <c r="E75" t="n">
-        <v>-2.132128903562652</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="H75" t="n">
+        <v>-0.8383971416089935</v>
+      </c>
+      <c r="I75" t="n">
         <v>0.1641134671750923</v>
       </c>
-      <c r="G75" t="n">
-        <v>0.718958333333334</v>
-      </c>
-      <c r="H75" t="n">
-        <v>-7.410120276969934</v>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>1.153584418529487</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.4170805610668576</v>
       </c>
     </row>
     <row r="76">
@@ -6367,31 +6367,31 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.4378846153846155</v>
+        <v>0.7299218750000001</v>
       </c>
       <c r="C76" t="n">
         <v>-44.86799051035702</v>
       </c>
       <c r="D76" t="n">
+        <v>0.3768733647161102</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.4378846153846155</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.6060852312729975</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.5427598048978117</v>
       </c>
-      <c r="E76" t="n">
-        <v>-0.6060852312729975</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="H76" t="n">
+        <v>-0.5445085439213813</v>
+      </c>
+      <c r="I76" t="n">
         <v>0.8975427584887243</v>
       </c>
-      <c r="G76" t="n">
-        <v>0.7299218750000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-6.524284825684845</v>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>0.6721419935359457</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.3768733647161102</v>
       </c>
     </row>
     <row r="77">
@@ -6401,31 +6401,31 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.4352173913043478</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="C77" t="n">
         <v>-44.94457587296313</v>
       </c>
       <c r="D77" t="n">
+        <v>0.3869591128448416</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.4352173913043478</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.5145264218908784</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.5874096891219988</v>
       </c>
-      <c r="E77" t="n">
-        <v>-0.5145264218908784</v>
-      </c>
-      <c r="F77" t="n">
+      <c r="H77" t="n">
+        <v>-0.6974399364676174</v>
+      </c>
+      <c r="I77" t="n">
         <v>0.6126257374196123</v>
       </c>
-      <c r="G77" t="n">
-        <v>0.8399999999999994</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-11.55068908093142</v>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>0.1220987828536571</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.3869591128448416</v>
       </c>
     </row>
     <row r="78">
@@ -6435,31 +6435,31 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.3610597826086956</v>
+        <v>0.8991532258064512</v>
       </c>
       <c r="C78" t="n">
         <v>-45.56447774344254</v>
       </c>
       <c r="D78" t="n">
+        <v>0.5533456082462325</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.3610597826086956</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.1711308481236317</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.05052881984006585</v>
       </c>
-      <c r="E78" t="n">
-        <v>-0.1711308481236317</v>
-      </c>
-      <c r="F78" t="n">
+      <c r="H78" t="n">
+        <v>-1.149116281797376</v>
+      </c>
+      <c r="I78" t="n">
         <v>0.2076196139382018</v>
       </c>
-      <c r="G78" t="n">
-        <v>0.8991532258064512</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-11.95626338078733</v>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>-0.573988567694194</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5533456082462325</v>
       </c>
     </row>
     <row r="79">
@@ -6469,31 +6469,31 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3124166666666667</v>
+        <v>0.7999590163934428</v>
       </c>
       <c r="C79" t="n">
         <v>-45.89768350870117</v>
       </c>
       <c r="D79" t="n">
+        <v>0.7746825155223669</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.3124166666666667</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.1093019040737192</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.2986877770750824</v>
       </c>
-      <c r="E79" t="n">
-        <v>-0.1093019040737192</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="H79" t="n">
+        <v>-1.728153961487862</v>
+      </c>
+      <c r="I79" t="n">
         <v>0.4927886115186563</v>
       </c>
-      <c r="G79" t="n">
-        <v>0.7999590163934428</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-18.50171638986987</v>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>0.6024531868168667</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.7746825155223669</v>
       </c>
     </row>
     <row r="80">
@@ -6503,31 +6503,31 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.311675824175824</v>
+        <v>0.7132936507936511</v>
       </c>
       <c r="C80" t="n">
         <v>-46.34244145219809</v>
       </c>
       <c r="D80" t="n">
+        <v>0.3153653389392717</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.311675824175824</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.013152112984366</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.8525670289972193</v>
       </c>
-      <c r="E80" t="n">
-        <v>2.013152112984366</v>
-      </c>
-      <c r="F80" t="n">
+      <c r="H80" t="n">
+        <v>-1.880022286742133</v>
+      </c>
+      <c r="I80" t="n">
         <v>0.7424179285001939</v>
       </c>
-      <c r="G80" t="n">
-        <v>0.7132936507936511</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-28.01371312043923</v>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>1.283160434102258</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.3153653389392717</v>
       </c>
     </row>
     <row r="81">
@@ -6537,31 +6537,31 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2542119565217391</v>
+        <v>0.6438671874999999</v>
       </c>
       <c r="C81" t="n">
         <v>-46.75761664151491</v>
       </c>
       <c r="D81" t="n">
+        <v>0.5077775941463397</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.2542119565217391</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.014545736028002</v>
+      </c>
+      <c r="G81" t="n">
         <v>1.804875449648623</v>
       </c>
-      <c r="E81" t="n">
-        <v>3.014545736028002</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="H81" t="n">
+        <v>-2.410073996446272</v>
+      </c>
+      <c r="I81" t="n">
         <v>1.493885495247254</v>
       </c>
-      <c r="G81" t="n">
-        <v>0.6438671874999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-23.05197991186748</v>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>0.8035425434530054</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5077775941463397</v>
       </c>
     </row>
     <row r="82">
@@ -6571,31 +6571,31 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2491847826086955</v>
+        <v>0.594354838709678</v>
       </c>
       <c r="C82" t="n">
         <v>-46.47380305916409</v>
       </c>
       <c r="D82" t="n">
+        <v>0.5499967095982701</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.2491847826086955</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.670942269301873</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.6546652538570708</v>
       </c>
-      <c r="E82" t="n">
-        <v>1.670942269301873</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
+        <v>-2.072512633006511</v>
+      </c>
+      <c r="I82" t="n">
         <v>0.380222727740155</v>
       </c>
-      <c r="G82" t="n">
-        <v>0.594354838709678</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-25.13949708013376</v>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>0.3021226481335962</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5499967095982701</v>
       </c>
     </row>
     <row r="83">
@@ -6605,31 +6605,31 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2504670329670329</v>
+        <v>0.5640725806451614</v>
       </c>
       <c r="C83" t="n">
         <v>-46.07025583885695</v>
       </c>
       <c r="D83" t="n">
+        <v>0.9062945069872314</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2504670329670329</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0331151268797816</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.7291589900734896</v>
       </c>
-      <c r="E83" t="n">
-        <v>0.0331151268797816</v>
-      </c>
-      <c r="F83" t="n">
+      <c r="H83" t="n">
+        <v>-1.718363044971625</v>
+      </c>
+      <c r="I83" t="n">
         <v>1.044335031142629</v>
       </c>
-      <c r="G83" t="n">
-        <v>0.5640725806451614</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-31.27173401023677</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>-0.9344074427186128</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.9062945069872314</v>
       </c>
     </row>
     <row r="84">
@@ -6639,31 +6639,31 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2528296703296703</v>
+        <v>0.5162096774193548</v>
       </c>
       <c r="C84" t="n">
         <v>-46.23675923243145</v>
       </c>
       <c r="D84" t="n">
+        <v>0.9247184795050015</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.2528296703296703</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3.2576270464653</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.8556181730074055</v>
       </c>
-      <c r="E84" t="n">
-        <v>3.2576270464653</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="H84" t="n">
+        <v>-2.198242570783634</v>
+      </c>
+      <c r="I84" t="n">
         <v>0.6217115403526761</v>
       </c>
-      <c r="G84" t="n">
-        <v>0.5162096774193548</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-25.14918090331477</v>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>0.2964375750173121</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.9247184795050015</v>
       </c>
     </row>
     <row r="85">
@@ -6673,31 +6673,31 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3576902173913044</v>
+        <v>0.5375390625000001</v>
       </c>
       <c r="C85" t="n">
         <v>-45.98649281978405</v>
       </c>
       <c r="D85" t="n">
+        <v>0.5680588081876239</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.3576902173913044</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.597296843242843</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.8847171160717024</v>
       </c>
-      <c r="E85" t="n">
-        <v>2.597296843242843</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="H85" t="n">
+        <v>-2.011824008846759</v>
+      </c>
+      <c r="I85" t="n">
         <v>0.7770950823478908</v>
       </c>
-      <c r="G85" t="n">
-        <v>0.5375390625000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-28.35795150270769</v>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>0.764010936566182</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5680588081876239</v>
       </c>
     </row>
     <row r="86">
@@ -6707,31 +6707,31 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.4874728260869566</v>
+        <v>0.5025806451612902</v>
       </c>
       <c r="C86" t="n">
         <v>-46.05971240593893</v>
       </c>
       <c r="D86" t="n">
+        <v>0.7891770063114183</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.4874728260869566</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.92999179424911</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.6290351564663436</v>
       </c>
-      <c r="E86" t="n">
-        <v>1.92999179424911</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="H86" t="n">
+        <v>-1.882207535912528</v>
+      </c>
+      <c r="I86" t="n">
         <v>0.9926885384200063</v>
       </c>
-      <c r="G86" t="n">
-        <v>0.5025806451612902</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-32.55923317591714</v>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>0.499586314917211</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.7891770063114183</v>
       </c>
     </row>
     <row r="87">
@@ -6741,31 +6741,31 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.6172500000000001</v>
+        <v>0.4166803278688531</v>
       </c>
       <c r="C87" t="n">
         <v>-45.99853001611664</v>
       </c>
       <c r="D87" t="n">
+        <v>0.9898712009737896</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.6172500000000001</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.44361486593121</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.7327392258561385</v>
       </c>
-      <c r="E87" t="n">
-        <v>1.44361486593121</v>
-      </c>
-      <c r="F87" t="n">
+      <c r="H87" t="n">
+        <v>-2.1389573231329</v>
+      </c>
+      <c r="I87" t="n">
         <v>0.04801242898436769</v>
       </c>
-      <c r="G87" t="n">
-        <v>0.4166803278688531</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-36.11000192571819</v>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>-0.1483585390102978</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.9898712009737896</v>
       </c>
     </row>
     <row r="88">
@@ -6775,31 +6775,31 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.7354395604395604</v>
+        <v>0.4526953124999997</v>
       </c>
       <c r="C88" t="n">
         <v>-45.47477688188138</v>
       </c>
       <c r="D88" t="n">
+        <v>0.5166540593334729</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.7354395604395604</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.345274372145874</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.6443090949852219</v>
       </c>
-      <c r="E88" t="n">
-        <v>2.345274372145874</v>
-      </c>
-      <c r="F88" t="n">
+      <c r="H88" t="n">
+        <v>-1.387142513422191</v>
+      </c>
+      <c r="I88" t="n">
         <v>1.003024138205245</v>
       </c>
-      <c r="G88" t="n">
-        <v>0.4526953124999997</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-36.1259632752585</v>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>-0.1535438710418746</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5166540593334729</v>
       </c>
     </row>
     <row r="89">
@@ -6809,31 +6809,31 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.8650000000000001</v>
+        <v>0.4414843749999997</v>
       </c>
       <c r="C89" t="n">
         <v>-45.24398743522662</v>
       </c>
       <c r="D89" t="n">
+        <v>1.000699093021529</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8650000000000001</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.584030116583909</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.9447199526411886</v>
       </c>
-      <c r="E89" t="n">
-        <v>1.584030116583909</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="H89" t="n">
+        <v>-1.321345679530964</v>
+      </c>
+      <c r="I89" t="n">
         <v>1.071570520045307</v>
       </c>
-      <c r="G89" t="n">
-        <v>0.4414843749999997</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-35.92984119835276</v>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>0.4246028844288456</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.000699093021529</v>
       </c>
     </row>
     <row r="90">
@@ -6843,31 +6843,31 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9945652173913042</v>
+        <v>0.4619672131147539</v>
       </c>
       <c r="C90" t="n">
         <v>-45.15044146900668</v>
       </c>
       <c r="D90" t="n">
+        <v>0.9200891141416953</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9945652173913042</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.042958997385506</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.3261643379240337</v>
       </c>
-      <c r="E90" t="n">
-        <v>1.042958997385506</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="H90" t="n">
+        <v>-1.21928455801708</v>
+      </c>
+      <c r="I90" t="n">
         <v>0.2406215419566891</v>
       </c>
-      <c r="G90" t="n">
-        <v>0.4619672131147539</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-30.16438607052842</v>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>-0.2451145735794066</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.9200891141416953</v>
       </c>
     </row>
     <row r="91">
@@ -6877,31 +6877,31 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.113527777777777</v>
+        <v>0.4336693548387101</v>
       </c>
       <c r="C91" t="n">
         <v>-44.80912073286623</v>
       </c>
       <c r="D91" t="n">
+        <v>0.8692985650799354</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.113527777777777</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.35581168259797</v>
+      </c>
+      <c r="G91" t="n">
         <v>1.176515808145579</v>
       </c>
-      <c r="E91" t="n">
-        <v>2.35581168259797</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="H91" t="n">
+        <v>-0.8587547888731137</v>
+      </c>
+      <c r="I91" t="n">
         <v>0.6106391601375187</v>
       </c>
-      <c r="G91" t="n">
-        <v>0.4336693548387101</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-30.54850558084499</v>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>0.787992793670105</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.8692985650799354</v>
       </c>
     </row>
     <row r="92">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.226895604395605</v>
+        <v>0.4162698412698409</v>
       </c>
       <c r="C92" t="n">
         <v>-44.49809334006444</v>
       </c>
       <c r="D92" t="n">
+        <v>0.6737052822196231</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.226895604395605</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.4769764071501741</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.661071313246069</v>
       </c>
-      <c r="E92" t="n">
-        <v>-0.4769764071501741</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="H92" t="n">
+        <v>-0.7480025582173084</v>
+      </c>
+      <c r="I92" t="n">
         <v>0.8173989768444696</v>
       </c>
-      <c r="G92" t="n">
-        <v>0.4162698412698409</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-24.01717005615532</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>-0.6796931986061553</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6737052822196231</v>
       </c>
     </row>
     <row r="93">
@@ -6945,31 +6945,31 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.311331521739131</v>
+        <v>0.4249206349206343</v>
       </c>
       <c r="C93" t="n">
         <v>-44.45757653104611</v>
       </c>
       <c r="D93" t="n">
+        <v>0.6785902506120579</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.311331521739131</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-1.536964619751223</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.1981792932020912</v>
       </c>
-      <c r="E93" t="n">
-        <v>-1.536964619751223</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="H93" t="n">
+        <v>-0.4372409185694437</v>
+      </c>
+      <c r="I93" t="n">
         <v>0.6417100439635193</v>
       </c>
-      <c r="G93" t="n">
-        <v>0.4249206349206343</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-26.1866901664352</v>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>-0.3175617652250704</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6785902506120579</v>
       </c>
     </row>
     <row r="94">
@@ -6979,31 +6979,31 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.310733695652174</v>
+        <v>0.4131451612903223</v>
       </c>
       <c r="C94" t="n">
         <v>-44.059983917393</v>
       </c>
       <c r="D94" t="n">
+        <v>0.5390664999303616</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.310733695652174</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-1.726244234551393</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.3731726171752976</v>
       </c>
-      <c r="E94" t="n">
-        <v>-1.726244234551393</v>
-      </c>
-      <c r="F94" t="n">
+      <c r="H94" t="n">
+        <v>-0.1014111376096594</v>
+      </c>
+      <c r="I94" t="n">
         <v>0.2473915189488285</v>
       </c>
-      <c r="G94" t="n">
-        <v>0.4131451612903223</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-31.00183525115429</v>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>2.361153234844049</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5390664999303616</v>
       </c>
     </row>
     <row r="95">
@@ -7013,31 +7013,31 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.313638888888889</v>
+        <v>0.4041532258064513</v>
       </c>
       <c r="C95" t="n">
         <v>-44.43311434671708</v>
       </c>
       <c r="D95" t="n">
+        <v>1.008133535602557</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.313638888888889</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-1.485104278533823</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.01232709055809781</v>
       </c>
-      <c r="E95" t="n">
-        <v>-1.485104278533823</v>
-      </c>
-      <c r="F95" t="n">
+      <c r="H95" t="n">
+        <v>-0.5089487315669317</v>
+      </c>
+      <c r="I95" t="n">
         <v>0.7699923798801223</v>
       </c>
-      <c r="G95" t="n">
-        <v>0.4041532258064513</v>
-      </c>
-      <c r="H95" t="n">
-        <v>-30.80437144210472</v>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>0.5400915463536593</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.008133535602557</v>
       </c>
     </row>
     <row r="96">
@@ -7047,31 +7047,31 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.313104395604396</v>
+        <v>0.4110546875000003</v>
       </c>
       <c r="C96" t="n">
         <v>-44.66623484339283</v>
       </c>
       <c r="D96" t="n">
+        <v>0.4998626562982654</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.313104395604396</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1868152725566</v>
+      </c>
+      <c r="G96" t="n">
         <v>1.169419695456269</v>
       </c>
-      <c r="E96" t="n">
-        <v>0.1868152725566</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="H96" t="n">
+        <v>-0.7797322340388178</v>
+      </c>
+      <c r="I96" t="n">
         <v>0.8830314393574633</v>
       </c>
-      <c r="G96" t="n">
-        <v>0.4110546875000003</v>
-      </c>
-      <c r="H96" t="n">
-        <v>-27.75911840011327</v>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>-0.1756652445377972</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.4998626562982654</v>
       </c>
     </row>
     <row r="97">
@@ -7081,31 +7081,31 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.268586956521739</v>
+        <v>0.4739285714285724</v>
       </c>
       <c r="C97" t="n">
         <v>-45.00001964567141</v>
       </c>
       <c r="D97" t="n">
+        <v>0.3782648603579029</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.268586956521739</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.7093369493827227</v>
+      </c>
+      <c r="G97" t="n">
         <v>1.161923519349422</v>
       </c>
-      <c r="E97" t="n">
-        <v>-0.7093369493827227</v>
-      </c>
-      <c r="F97" t="n">
+      <c r="H97" t="n">
+        <v>-1.142795459273145</v>
+      </c>
+      <c r="I97" t="n">
         <v>0.7358820427255129</v>
       </c>
-      <c r="G97" t="n">
-        <v>0.4739285714285724</v>
-      </c>
-      <c r="H97" t="n">
-        <v>-25.5674782805817</v>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>0.4448689811196403</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.3782648603579029</v>
       </c>
     </row>
     <row r="98">
@@ -7115,31 +7115,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.123913043478261</v>
+        <v>0.5597983870967749</v>
       </c>
       <c r="C98" t="n">
         <v>-45.12636273017741</v>
       </c>
       <c r="D98" t="n">
+        <v>0.6993093570722235</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.123913043478261</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-1.996807815347466</v>
+      </c>
+      <c r="G98" t="n">
         <v>-0.04301741411233172</v>
       </c>
-      <c r="E98" t="n">
-        <v>-1.996807815347466</v>
-      </c>
-      <c r="F98" t="n">
+      <c r="H98" t="n">
+        <v>-1.533344778212779</v>
+      </c>
+      <c r="I98" t="n">
         <v>0.5931184804424181</v>
       </c>
-      <c r="G98" t="n">
-        <v>0.5597983870967749</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-27.52067861649311</v>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>0.8880433280437335</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6993093570722235</v>
       </c>
     </row>
     <row r="99">
@@ -7149,31 +7149,31 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.7953571428571427</v>
+        <v>0.770901639344262</v>
       </c>
       <c r="C99" t="n">
         <v>-45.41938226035689</v>
       </c>
       <c r="D99" t="n">
+        <v>0.6492377582805906</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7953571428571427</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-2.160553501612355</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.2174782841721492</v>
       </c>
-      <c r="E99" t="n">
-        <v>-2.160553501612355</v>
-      </c>
-      <c r="F99" t="n">
+      <c r="H99" t="n">
+        <v>-1.674035747605274</v>
+      </c>
+      <c r="I99" t="n">
         <v>0.4528910117144108</v>
       </c>
-      <c r="G99" t="n">
-        <v>0.770901639344262</v>
-      </c>
-      <c r="H99" t="n">
-        <v>-23.85293801993274</v>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>0.5529426057911669</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6492377582805906</v>
       </c>
     </row>
     <row r="100">
@@ -7183,30 +7183,30 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.5211813186813187</v>
+        <v>0.77703125</v>
       </c>
       <c r="C100" t="n">
         <v>-45.66496862338042</v>
       </c>
       <c r="D100" t="n">
+        <v>0.2627841838076084</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.5211813186813187</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.5899749679283601</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.4677349125184843</v>
       </c>
-      <c r="E100" t="n">
-        <v>-0.5899749679283601</v>
-      </c>
-      <c r="F100" t="n">
+      <c r="H100" t="n">
+        <v>-1.911601980096918</v>
+      </c>
+      <c r="I100" t="n">
         <v>1.146901635473386</v>
       </c>
-      <c r="G100" t="n">
-        <v>0.77703125</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-20.34660160369975</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.2627841838076084</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -7215,20 +7215,18 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.502171052631579</v>
+        <v>0.7912962962962962</v>
       </c>
       <c r="C101" t="n">
         <v>-46.44054535822093</v>
       </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>0.502171052631579</v>
+      </c>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="n">
-        <v>0.7912962962962962</v>
-      </c>
-      <c r="H101" t="n">
-        <v>-17.79445557213023</v>
-      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
     </row>

--- a/data/vintage_data/data_20080807.xlsx
+++ b/data/vintage_data/data_20080807.xlsx
@@ -15537,9 +15537,7 @@
       <c r="V101" t="n">
         <v>-2.907870533706667</v>
       </c>
-      <c r="W101" t="n">
-        <v>5.6536</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -23142,16 +23140,16 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-46.44054535822093</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>5.7</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -30762,7 +30760,9 @@
       <c r="O101" t="n">
         <v>937.0812006695448</v>
       </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-46.44054535822093</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30773,9 +30773,7 @@
       <c r="V101" t="n">
         <v>-2.907870533706667</v>
       </c>
-      <c r="W101" t="n">
-        <v>5.7</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/vintage_data/data_20080807.xlsx
+++ b/data/vintage_data/data_20080807.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -554,9 +564,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W2" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y2" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.3624400212747939</v>
       </c>
     </row>
@@ -628,9 +644,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W3" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -702,9 +724,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W4" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -776,9 +804,15 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -850,9 +884,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W6" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -924,9 +964,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W7" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -998,9 +1044,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W8" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.3</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -1072,9 +1124,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.2</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -1146,9 +1204,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -1220,9 +1284,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -1294,9 +1364,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W12" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -1368,9 +1444,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W13" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -1442,9 +1524,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W14" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -1516,9 +1604,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W15" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -1590,9 +1684,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -1664,9 +1764,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -1738,9 +1844,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W18" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -1812,9 +1924,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.7</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -1886,9 +2004,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -1960,9 +2084,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W21" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -2034,9 +2164,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W22" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -2108,9 +2244,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W23" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.2</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -2182,9 +2324,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W24" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -2256,9 +2404,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W25" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -2330,9 +2484,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W26" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -2404,9 +2564,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.3</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -2478,9 +2644,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -2552,9 +2724,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.7</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -2626,9 +2804,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W30" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -2700,9 +2884,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W31" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -2774,9 +2964,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -2848,9 +3044,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -2922,9 +3124,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -2996,9 +3204,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W35" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -3070,9 +3284,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W36" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -3144,9 +3364,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W37" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -3218,9 +3444,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W38" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -3292,9 +3524,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W39" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -3366,9 +3604,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W40" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -3440,9 +3684,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.8</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -3514,9 +3764,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -3590,9 +3846,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -3666,9 +3928,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.2</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -3742,9 +4010,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W45" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -3818,9 +4092,15 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -3894,9 +4174,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W47" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -3970,9 +4256,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -4046,9 +4338,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -4122,9 +4420,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -4198,9 +4502,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -4274,9 +4584,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.5</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -4350,9 +4666,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -4426,9 +4748,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -4502,9 +4830,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -4578,9 +4912,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W56" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -4654,9 +4994,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -4730,9 +5076,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -4806,9 +5158,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -4882,9 +5240,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -4958,9 +5322,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W61" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -5034,9 +5404,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -5110,9 +5486,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.3</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -5186,9 +5568,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W64" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -5262,9 +5650,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W65" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -5338,9 +5732,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W66" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -5414,9 +5814,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W67" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -5490,9 +5896,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W68" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y68" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -5566,9 +5978,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W69" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -5642,9 +6060,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W70" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y70" t="n">
         <v>3.9</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -5718,9 +6142,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W71" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -5794,9 +6224,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W72" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -5870,9 +6306,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W73" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -5946,9 +6388,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W74" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.5</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -6022,9 +6470,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W75" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.7</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -6098,9 +6552,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W76" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -6174,9 +6634,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W77" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -6250,9 +6716,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W78" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -6326,9 +6798,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W79" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -6402,9 +6880,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W80" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X80" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y80" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -6478,9 +6962,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W81" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y81" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -6554,9 +7044,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W82" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -6630,9 +7126,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W83" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.7</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -6706,9 +7208,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W84" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -6782,9 +7290,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W85" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -6858,9 +7372,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W86" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -6934,9 +7454,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W87" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.1483585390102978</v>
       </c>
     </row>
@@ -7010,9 +7536,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W88" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.1535438710418746</v>
       </c>
     </row>
@@ -7086,9 +7618,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W89" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.4246028844288456</v>
       </c>
     </row>
@@ -7162,9 +7700,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W90" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.2451145735794066</v>
       </c>
     </row>
@@ -7238,9 +7782,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W91" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.7</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.787992793670105</v>
       </c>
     </row>
@@ -7314,9 +7864,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.6796931986061553</v>
       </c>
     </row>
@@ -7390,9 +7946,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W93" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.3175617652250704</v>
       </c>
     </row>
@@ -7466,9 +8028,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W94" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>2.361153234844049</v>
       </c>
     </row>
@@ -7542,9 +8110,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W95" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.5</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.5400915463536593</v>
       </c>
     </row>
@@ -7618,9 +8192,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W96" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.1756652445377972</v>
       </c>
     </row>
@@ -7694,9 +8274,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W97" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.7</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.4448689811196403</v>
       </c>
     </row>
@@ -7770,9 +8356,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W98" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.8880433280437335</v>
       </c>
     </row>
@@ -7846,9 +8438,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W99" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5529426057911669</v>
       </c>
     </row>
@@ -7920,9 +8518,13 @@
         <v>-4.79005770116721</v>
       </c>
       <c r="W100" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7935,7 +8537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8051,10 +8653,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -8128,9 +8740,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W2" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y2" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.3624400212747939</v>
       </c>
     </row>
@@ -8202,9 +8820,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W3" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -8276,9 +8900,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W4" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -8350,9 +8980,15 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -8424,9 +9060,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W6" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -8498,9 +9140,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W7" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -8572,9 +9220,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W8" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.3</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -8646,9 +9300,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.2</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -8720,9 +9380,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -8794,9 +9460,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -8868,9 +9540,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W12" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -8942,9 +9620,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W13" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -9016,9 +9700,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W14" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -9090,9 +9780,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W15" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -9164,9 +9860,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -9238,9 +9940,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -9312,9 +10020,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W18" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -9386,9 +10100,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.7</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -9460,9 +10180,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -9534,9 +10260,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W21" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -9608,9 +10340,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W22" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -9682,9 +10420,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W23" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.2</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -9756,9 +10500,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W24" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -9830,9 +10580,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W25" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -9904,9 +10660,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W26" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -9978,9 +10740,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.3</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -10052,9 +10820,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -10126,9 +10900,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.7</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -10200,9 +10980,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W30" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -10274,9 +11060,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W31" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -10348,9 +11140,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -10422,9 +11220,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -10496,9 +11300,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -10570,9 +11380,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W35" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -10644,9 +11460,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W36" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -10718,9 +11540,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W37" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -10792,9 +11620,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W38" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -10866,9 +11700,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W39" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -10940,9 +11780,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W40" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -11014,9 +11860,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.8</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -11088,9 +11940,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -11164,9 +12022,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -11240,9 +12104,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.2</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -11316,9 +12186,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W45" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -11392,9 +12268,15 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -11468,9 +12350,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W47" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -11544,9 +12432,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -11620,9 +12514,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -11696,9 +12596,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -11772,9 +12678,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -11848,9 +12760,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.5</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -11924,9 +12842,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -12000,9 +12924,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -12076,9 +13006,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -12152,9 +13088,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W56" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -12228,9 +13170,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -12304,9 +13252,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -12380,9 +13334,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -12456,9 +13416,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -12532,9 +13498,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W61" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -12608,9 +13580,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -12684,9 +13662,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.3</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -12760,9 +13744,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W64" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -12836,9 +13826,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W65" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -12912,9 +13908,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W66" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -12988,9 +13990,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W67" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -13064,9 +14072,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W68" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y68" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -13140,9 +14154,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W69" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -13216,9 +14236,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W70" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y70" t="n">
         <v>3.9</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -13292,9 +14318,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W71" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -13368,9 +14400,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W72" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -13444,9 +14482,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W73" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -13520,9 +14564,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W74" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.5</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -13596,9 +14646,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W75" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.7</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -13672,9 +14728,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W76" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -13748,9 +14810,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W77" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -13824,9 +14892,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W78" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -13900,9 +14974,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W79" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -13976,9 +15056,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W80" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X80" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y80" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -14052,9 +15138,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W81" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y81" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -14128,9 +15220,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W82" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -14204,9 +15302,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W83" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.7</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -14280,9 +15384,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W84" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -14356,9 +15466,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W85" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -14432,9 +15548,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W86" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -14508,9 +15630,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W87" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.1483585390102978</v>
       </c>
     </row>
@@ -14584,9 +15712,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W88" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.1535438710418746</v>
       </c>
     </row>
@@ -14660,9 +15794,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W89" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.4246028844288456</v>
       </c>
     </row>
@@ -14736,9 +15876,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W90" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.2451145735794066</v>
       </c>
     </row>
@@ -14812,9 +15958,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W91" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.7</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.787992793670105</v>
       </c>
     </row>
@@ -14888,9 +16040,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.6796931986061553</v>
       </c>
     </row>
@@ -14964,9 +16122,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W93" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.3175617652250704</v>
       </c>
     </row>
@@ -15040,9 +16204,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W94" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>2.361153234844049</v>
       </c>
     </row>
@@ -15116,9 +16286,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W95" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.5</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.5400915463536593</v>
       </c>
     </row>
@@ -15192,9 +16368,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W96" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.1756652445377972</v>
       </c>
     </row>
@@ -15268,9 +16450,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W97" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.7</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.4448689811196403</v>
       </c>
     </row>
@@ -15344,9 +16532,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W98" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.8880433280437335</v>
       </c>
     </row>
@@ -15420,9 +16614,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W99" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5529426057911669</v>
       </c>
     </row>
@@ -15494,9 +16694,13 @@
         <v>-4.79005770116721</v>
       </c>
       <c r="W100" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -15539,6 +16743,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -15551,7 +16757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15667,10 +16873,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -15744,9 +16960,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W2" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y2" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.3624400212747939</v>
       </c>
     </row>
@@ -15818,9 +17040,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W3" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -15892,9 +17120,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W4" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -15966,9 +17200,15 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -16040,9 +17280,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W6" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -16114,9 +17360,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W7" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -16188,9 +17440,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W8" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.3</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -16262,9 +17520,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.2</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -16336,9 +17600,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -16410,9 +17680,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -16484,9 +17760,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W12" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -16558,9 +17840,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W13" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -16632,9 +17920,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W14" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -16706,9 +18000,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W15" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -16780,9 +18080,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -16854,9 +18160,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -16928,9 +18240,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W18" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -17002,9 +18320,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.7</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -17076,9 +18400,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -17150,9 +18480,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W21" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -17224,9 +18560,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W22" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -17298,9 +18640,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W23" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.2</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -17372,9 +18720,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W24" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -17446,9 +18800,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W25" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -17520,9 +18880,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W26" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -17594,9 +18960,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.3</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -17668,9 +19040,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -17742,9 +19120,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.7</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -17816,9 +19200,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W30" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -17890,9 +19280,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W31" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -17964,9 +19360,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -18038,9 +19440,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -18112,9 +19520,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -18186,9 +19600,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W35" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -18260,9 +19680,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W36" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -18334,9 +19760,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W37" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -18408,9 +19840,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W38" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -18482,9 +19920,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W39" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -18556,9 +20000,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W40" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -18630,9 +20080,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.8</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -18704,9 +20160,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -18780,9 +20242,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -18856,9 +20324,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.2</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -18932,9 +20406,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W45" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -19008,9 +20488,15 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -19084,9 +20570,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W47" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -19160,9 +20652,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -19236,9 +20734,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -19312,9 +20816,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -19388,9 +20898,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -19464,9 +20980,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.5</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -19540,9 +21062,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -19616,9 +21144,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -19692,9 +21226,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -19768,9 +21308,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W56" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -19844,9 +21390,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -19920,9 +21472,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -19996,9 +21554,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -20072,9 +21636,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -20148,9 +21718,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W61" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -20224,9 +21800,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -20300,9 +21882,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.3</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -20376,9 +21964,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W64" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -20452,9 +22046,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W65" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -20528,9 +22128,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W66" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -20604,9 +22210,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W67" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -20680,9 +22292,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W68" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y68" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -20756,9 +22374,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W69" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -20832,9 +22456,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W70" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y70" t="n">
         <v>3.9</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -20908,9 +22538,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W71" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -20984,9 +22620,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W72" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -21060,9 +22702,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W73" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -21136,9 +22784,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W74" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.5</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -21212,9 +22866,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W75" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.7</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -21288,9 +22948,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W76" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -21364,9 +23030,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W77" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -21440,9 +23112,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W78" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -21516,9 +23194,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W79" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -21592,9 +23276,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W80" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X80" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y80" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -21668,9 +23358,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W81" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y81" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -21744,9 +23440,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W82" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -21820,9 +23522,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W83" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.7</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -21896,9 +23604,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W84" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -21972,9 +23686,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W85" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -22048,9 +23768,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W86" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -22124,9 +23850,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W87" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.1483585390102978</v>
       </c>
     </row>
@@ -22200,9 +23932,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W88" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.1535438710418746</v>
       </c>
     </row>
@@ -22276,9 +24014,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W89" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.4246028844288456</v>
       </c>
     </row>
@@ -22352,9 +24096,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W90" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.2451145735794066</v>
       </c>
     </row>
@@ -22428,9 +24178,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W91" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.7</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.787992793670105</v>
       </c>
     </row>
@@ -22504,9 +24260,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.6796931986061553</v>
       </c>
     </row>
@@ -22580,9 +24342,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W93" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.3175617652250704</v>
       </c>
     </row>
@@ -22656,9 +24424,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W94" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>2.361153234844049</v>
       </c>
     </row>
@@ -22732,9 +24506,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W95" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.5</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.5400915463536593</v>
       </c>
     </row>
@@ -22808,9 +24588,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W96" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.1756652445377972</v>
       </c>
     </row>
@@ -22884,9 +24670,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W97" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.7</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.4448689811196403</v>
       </c>
     </row>
@@ -22960,9 +24752,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W98" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.8880433280437335</v>
       </c>
     </row>
@@ -23036,9 +24834,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W99" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5529426057911669</v>
       </c>
     </row>
@@ -23110,9 +24914,13 @@
         <v>-4.79005770116721</v>
       </c>
       <c r="W100" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -23140,9 +24948,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="n">
-        <v>-46.44054535822093</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -23151,6 +24957,8 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -23163,7 +24971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23279,10 +25087,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -23356,9 +25174,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W2" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y2" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.3624400212747939</v>
       </c>
     </row>
@@ -23430,9 +25254,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W3" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -23504,9 +25334,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W4" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -23578,9 +25414,15 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -23652,9 +25494,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W6" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -23726,9 +25574,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W7" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -23800,9 +25654,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W8" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.3</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -23874,9 +25734,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.2</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -23948,9 +25814,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -24022,9 +25894,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -24096,9 +25974,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W12" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -24170,9 +26054,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W13" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -24244,9 +26134,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W14" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -24318,9 +26214,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W15" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -24392,9 +26294,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -24466,9 +26374,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -24540,9 +26454,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W18" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -24614,9 +26534,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.7</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -24688,9 +26614,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -24762,9 +26694,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W21" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -24836,9 +26774,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W22" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -24910,9 +26854,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W23" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.2</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -24984,9 +26934,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W24" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -25058,9 +27014,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W25" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -25132,9 +27094,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W26" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -25206,9 +27174,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.3</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -25280,9 +27254,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -25354,9 +27334,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.7</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -25428,9 +27414,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W30" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -25502,9 +27494,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W31" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -25576,9 +27574,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -25650,9 +27654,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -25724,9 +27734,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -25798,9 +27814,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W35" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -25872,9 +27894,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W36" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -25946,9 +27974,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W37" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -26020,9 +28054,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W38" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -26094,9 +28134,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W39" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -26168,9 +28214,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W40" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -26242,9 +28294,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.8</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -26316,9 +28374,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -26392,9 +28456,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -26468,9 +28538,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.2</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -26544,9 +28620,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W45" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -26620,9 +28702,15 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -26696,9 +28784,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W47" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -26772,9 +28866,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -26848,9 +28948,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -26924,9 +29030,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -27000,9 +29112,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -27076,9 +29194,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.5</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -27152,9 +29276,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -27228,9 +29358,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -27304,9 +29440,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -27380,9 +29522,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W56" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -27456,9 +29604,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -27532,9 +29686,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -27608,9 +29768,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -27684,9 +29850,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -27760,9 +29932,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W61" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -27836,9 +30014,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -27912,9 +30096,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.3</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -27988,9 +30178,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W64" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -28064,9 +30260,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W65" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -28140,9 +30342,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W66" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -28216,9 +30424,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W67" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -28292,9 +30506,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W68" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y68" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -28368,9 +30588,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W69" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -28444,9 +30670,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W70" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y70" t="n">
         <v>3.9</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -28520,9 +30752,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W71" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -28596,9 +30834,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W72" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -28672,9 +30916,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W73" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -28748,9 +30998,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W74" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.5</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -28824,9 +31080,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W75" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.7</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -28900,9 +31162,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W76" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -28976,9 +31244,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W77" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -29052,9 +31326,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W78" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -29128,9 +31408,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W79" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -29204,9 +31490,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W80" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X80" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y80" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -29280,9 +31572,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W81" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y81" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -29356,9 +31654,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W82" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -29432,9 +31736,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W83" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.7</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -29508,9 +31818,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W84" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -29584,9 +31900,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W85" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -29660,9 +31982,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W86" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -29736,9 +32064,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W87" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.1483585390102978</v>
       </c>
     </row>
@@ -29812,9 +32146,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W88" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.1535438710418746</v>
       </c>
     </row>
@@ -29888,9 +32228,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W89" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.4246028844288456</v>
       </c>
     </row>
@@ -29964,9 +32310,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W90" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.2451145735794066</v>
       </c>
     </row>
@@ -30040,9 +32392,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W91" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.7</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.787992793670105</v>
       </c>
     </row>
@@ -30116,9 +32474,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.6796931986061553</v>
       </c>
     </row>
@@ -30192,9 +32556,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W93" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.3175617652250704</v>
       </c>
     </row>
@@ -30268,9 +32638,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W94" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>2.361153234844049</v>
       </c>
     </row>
@@ -30344,9 +32720,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W95" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.5</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.5400915463536593</v>
       </c>
     </row>
@@ -30420,9 +32802,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W96" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.1756652445377972</v>
       </c>
     </row>
@@ -30496,9 +32884,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W97" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.7</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.4448689811196403</v>
       </c>
     </row>
@@ -30572,9 +32966,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W98" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.8880433280437335</v>
       </c>
     </row>
@@ -30648,9 +33048,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W99" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5529426057911669</v>
       </c>
     </row>
@@ -30722,9 +33128,13 @@
         <v>-4.79005770116721</v>
       </c>
       <c r="W100" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -30760,9 +33170,7 @@
       <c r="O101" t="n">
         <v>937.0812006695448</v>
       </c>
-      <c r="P101" t="n">
-        <v>-46.44054535822093</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30775,6 +33183,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/vintage_data/data_20080807.xlsx
+++ b/data/vintage_data/data_20080807.xlsx
@@ -16743,7 +16743,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>5.6536</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -33183,7 +33185,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>5.6536</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
